--- a/IPL/Data/lineups/G57_MI v GT.xlsx
+++ b/IPL/Data/lineups/G57_MI v GT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\Cricket-Analytics\IPL\Data\lineups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347137DA-6EE3-4A9B-8960-3CC97A684603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEFF308-19A5-487A-B355-68CBCB449E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G47" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2702,7 +2702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3278,9 +3278,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3293,7 +3290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
@@ -3303,11 +3300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23185,11 +23182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DA0C7-CE3E-497B-A99A-4B78AEE683D6}">
   <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23307,52 +23304,52 @@
       <c r="B4" s="188" t="s">
         <v>530</v>
       </c>
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="185" t="s">
         <v>579</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="185" t="s">
         <v>580</v>
       </c>
-      <c r="E4" s="222" t="s">
+      <c r="E4" s="185" t="s">
         <v>581</v>
       </c>
-      <c r="F4" s="222" t="s">
+      <c r="F4" s="185" t="s">
         <v>582</v>
       </c>
-      <c r="G4" s="222" t="s">
+      <c r="G4" s="185" t="s">
         <v>583</v>
       </c>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="185" t="s">
         <v>584</v>
       </c>
-      <c r="I4" s="222" t="s">
+      <c r="I4" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="J4" s="222" t="s">
+      <c r="J4" s="185" t="s">
         <v>586</v>
       </c>
-      <c r="K4" s="222" t="s">
+      <c r="K4" s="185" t="s">
         <v>587</v>
       </c>
-      <c r="L4" s="222" t="s">
+      <c r="L4" s="185" t="s">
         <v>588</v>
       </c>
-      <c r="M4" s="222" t="s">
+      <c r="M4" s="185" t="s">
         <v>589</v>
       </c>
-      <c r="N4" s="222" t="s">
+      <c r="N4" s="185" t="s">
         <v>590</v>
       </c>
-      <c r="O4" s="222" t="s">
+      <c r="O4" s="185" t="s">
         <v>591</v>
       </c>
-      <c r="P4" s="222" t="s">
+      <c r="P4" s="185" t="s">
         <v>592</v>
       </c>
-      <c r="Q4" s="222" t="s">
+      <c r="Q4" s="185" t="s">
         <v>593</v>
       </c>
-      <c r="R4" s="223" t="s">
+      <c r="R4" s="221" t="s">
         <v>594</v>
       </c>
     </row>
@@ -23360,52 +23357,52 @@
       <c r="B5" s="189" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="220" t="s">
+      <c r="C5" s="219" t="s">
         <v>595</v>
       </c>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="219" t="s">
         <v>580</v>
       </c>
-      <c r="E5" s="220" t="s">
+      <c r="E5" s="219" t="s">
         <v>596</v>
       </c>
-      <c r="F5" s="220" t="s">
+      <c r="F5" s="219" t="s">
         <v>597</v>
       </c>
-      <c r="G5" s="220" t="s">
+      <c r="G5" s="219" t="s">
         <v>598</v>
       </c>
-      <c r="H5" s="220" t="s">
+      <c r="H5" s="219" t="s">
         <v>584</v>
       </c>
-      <c r="I5" s="220" t="s">
+      <c r="I5" s="219" t="s">
         <v>599</v>
       </c>
-      <c r="J5" s="220" t="s">
+      <c r="J5" s="219" t="s">
         <v>600</v>
       </c>
-      <c r="K5" s="220" t="s">
+      <c r="K5" s="219" t="s">
         <v>601</v>
       </c>
-      <c r="L5" s="220" t="s">
+      <c r="L5" s="219" t="s">
         <v>588</v>
       </c>
-      <c r="M5" s="220" t="s">
+      <c r="M5" s="219" t="s">
         <v>589</v>
       </c>
-      <c r="N5" s="220" t="s">
+      <c r="N5" s="219" t="s">
         <v>602</v>
       </c>
-      <c r="O5" s="220" t="s">
+      <c r="O5" s="219" t="s">
         <v>603</v>
       </c>
-      <c r="P5" s="220" t="s">
+      <c r="P5" s="219" t="s">
         <v>604</v>
       </c>
-      <c r="Q5" s="220" t="s">
+      <c r="Q5" s="219" t="s">
         <v>593</v>
       </c>
-      <c r="R5" s="221" t="s">
+      <c r="R5" s="220" t="s">
         <v>605</v>
       </c>
     </row>
@@ -23466,47 +23463,47 @@
       <c r="B7" s="188" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="213" t="s">
+      <c r="E7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="213" t="s">
+      <c r="F7" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="213" t="s">
+      <c r="G7" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="213" t="s">
+      <c r="H7" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="213" t="s">
+      <c r="I7" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="213" t="s">
+      <c r="J7" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="213" t="s">
+      <c r="K7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="213" t="s">
+      <c r="L7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="M7" s="213" t="s">
+      <c r="M7" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="N7" s="213" t="s">
+      <c r="N7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="213" t="s">
+      <c r="O7" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="213" t="s">
+      <c r="P7" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="213" t="s">
+      <c r="Q7" s="33" t="s">
         <v>142</v>
       </c>
       <c r="R7" s="193" t="s">
@@ -23517,47 +23514,47 @@
       <c r="B8" s="188" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="213" t="s">
+      <c r="E8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="213" t="s">
+      <c r="F8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="213" t="s">
+      <c r="G8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="213" t="s">
+      <c r="H8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="213" t="s">
+      <c r="I8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="213" t="s">
+      <c r="J8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="213" t="s">
+      <c r="K8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="213" t="s">
+      <c r="L8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="213" t="s">
+      <c r="M8" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N8" s="213" t="s">
+      <c r="N8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="213" t="s">
+      <c r="O8" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="213" t="s">
+      <c r="P8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="Q8" s="213" t="s">
+      <c r="Q8" s="33" t="s">
         <v>134</v>
       </c>
       <c r="R8" s="193" t="s">
@@ -23616,53 +23613,53 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="213" t="s">
         <v>536</v>
       </c>
-      <c r="C10" s="215"/>
-      <c r="D10" s="216" t="s">
+      <c r="C10" s="214"/>
+      <c r="D10" s="215" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="216" t="s">
+      <c r="E10" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="216" t="s">
+      <c r="F10" s="215" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="216" t="s">
+      <c r="G10" s="215" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="216" t="s">
+      <c r="H10" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="216" t="s">
+      <c r="I10" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="J10" s="216" t="s">
+      <c r="J10" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="K10" s="216" t="s">
+      <c r="K10" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="216" t="s">
+      <c r="L10" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="M10" s="216" t="s">
+      <c r="M10" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="N10" s="216" t="s">
+      <c r="N10" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="216" t="s">
+      <c r="O10" s="215" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="216" t="s">
+      <c r="P10" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="Q10" s="216" t="s">
+      <c r="Q10" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="R10" s="217" t="s">
+      <c r="R10" s="216" t="s">
         <v>197</v>
       </c>
     </row>
@@ -23715,88 +23712,88 @@
       <c r="B12" s="188" t="s">
         <v>538</v>
       </c>
-      <c r="C12" s="213">
-        <v>1</v>
-      </c>
-      <c r="D12" s="213">
-        <v>2</v>
-      </c>
-      <c r="E12" s="213">
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
         <v>3</v>
       </c>
-      <c r="F12" s="213">
+      <c r="F12" s="33">
         <v>5</v>
       </c>
-      <c r="G12" s="213">
+      <c r="G12" s="33">
         <v>4</v>
       </c>
-      <c r="H12" s="213">
+      <c r="H12" s="33">
         <v>7</v>
       </c>
-      <c r="I12" s="213">
+      <c r="I12" s="33">
         <v>6</v>
       </c>
-      <c r="J12" s="213">
+      <c r="J12" s="33">
         <v>4</v>
       </c>
-      <c r="K12" s="213"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213"/>
-      <c r="N12" s="213"/>
-      <c r="O12" s="213"/>
-      <c r="P12" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="213"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="33"/>
       <c r="R12" s="193"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="211" t="s">
         <v>539</v>
       </c>
-      <c r="C13" s="213">
+      <c r="C13" s="33">
         <v>121</v>
       </c>
-      <c r="D13" s="213">
+      <c r="D13" s="33">
         <v>240</v>
       </c>
-      <c r="E13" s="213">
+      <c r="E13" s="33">
         <v>181</v>
       </c>
-      <c r="F13" s="213">
+      <c r="F13" s="33">
         <v>122</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="33">
         <v>128</v>
       </c>
-      <c r="H13" s="213">
+      <c r="H13" s="33">
         <v>7</v>
       </c>
-      <c r="I13" s="213">
+      <c r="I13" s="33">
         <v>31</v>
       </c>
-      <c r="J13" s="213">
+      <c r="J13" s="33">
         <v>80</v>
       </c>
-      <c r="K13" s="213">
-        <v>0</v>
-      </c>
-      <c r="L13" s="213">
-        <v>0</v>
-      </c>
-      <c r="M13" s="213">
-        <v>0</v>
-      </c>
-      <c r="N13" s="213">
-        <v>0</v>
-      </c>
-      <c r="O13" s="213">
-        <v>0</v>
-      </c>
-      <c r="P13" s="213">
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
         <v>141</v>
       </c>
-      <c r="Q13" s="213">
+      <c r="Q13" s="33">
         <v>0</v>
       </c>
       <c r="R13" s="193">
@@ -23860,49 +23857,49 @@
       <c r="B15" s="188" t="s">
         <v>541</v>
       </c>
-      <c r="C15" s="213">
+      <c r="C15" s="33">
         <v>114</v>
       </c>
-      <c r="D15" s="213">
+      <c r="D15" s="33">
         <v>115</v>
       </c>
-      <c r="E15" s="213">
+      <c r="E15" s="33">
         <v>48</v>
       </c>
-      <c r="F15" s="213">
-        <v>1</v>
-      </c>
-      <c r="G15" s="213">
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="G15" s="33">
         <v>10</v>
       </c>
-      <c r="H15" s="213">
-        <v>0</v>
-      </c>
-      <c r="I15" s="213">
-        <v>0</v>
-      </c>
-      <c r="J15" s="213">
-        <v>0</v>
-      </c>
-      <c r="K15" s="213">
-        <v>0</v>
-      </c>
-      <c r="L15" s="213">
-        <v>0</v>
-      </c>
-      <c r="M15" s="213">
-        <v>0</v>
-      </c>
-      <c r="N15" s="213">
-        <v>0</v>
-      </c>
-      <c r="O15" s="213">
-        <v>0</v>
-      </c>
-      <c r="P15" s="213">
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
         <v>52</v>
       </c>
-      <c r="Q15" s="213">
+      <c r="Q15" s="33">
         <v>0</v>
       </c>
       <c r="R15" s="193">
@@ -23913,49 +23910,49 @@
       <c r="B16" s="188" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="213">
+      <c r="C16" s="33">
         <v>8</v>
       </c>
-      <c r="D16" s="213">
+      <c r="D16" s="33">
         <v>4</v>
       </c>
-      <c r="E16" s="213">
-        <v>1</v>
-      </c>
-      <c r="F16" s="213">
-        <v>0</v>
-      </c>
-      <c r="G16" s="213">
-        <v>1</v>
-      </c>
-      <c r="H16" s="213">
-        <v>0</v>
-      </c>
-      <c r="I16" s="213">
-        <v>0</v>
-      </c>
-      <c r="J16" s="213">
-        <v>0</v>
-      </c>
-      <c r="K16" s="213">
-        <v>0</v>
-      </c>
-      <c r="L16" s="213">
-        <v>0</v>
-      </c>
-      <c r="M16" s="213">
-        <v>0</v>
-      </c>
-      <c r="N16" s="213">
-        <v>0</v>
-      </c>
-      <c r="O16" s="213">
-        <v>0</v>
-      </c>
-      <c r="P16" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="213">
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <v>0</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0</v>
+      </c>
+      <c r="M16" s="33">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33">
         <v>0</v>
       </c>
       <c r="R16" s="193">
@@ -23966,49 +23963,49 @@
       <c r="B17" s="188" t="s">
         <v>543</v>
       </c>
-      <c r="C17" s="213">
+      <c r="C17" s="33">
         <v>13</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D17" s="33">
         <v>158</v>
       </c>
-      <c r="E17" s="213">
+      <c r="E17" s="33">
         <v>125</v>
       </c>
-      <c r="F17" s="213">
+      <c r="F17" s="33">
         <v>97</v>
       </c>
-      <c r="G17" s="213">
+      <c r="G17" s="33">
         <v>112</v>
       </c>
-      <c r="H17" s="213">
-        <v>0</v>
-      </c>
-      <c r="I17" s="213">
-        <v>1</v>
-      </c>
-      <c r="J17" s="213">
+      <c r="H17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33">
+        <v>1</v>
+      </c>
+      <c r="J17" s="33">
         <v>64</v>
       </c>
-      <c r="K17" s="213">
-        <v>0</v>
-      </c>
-      <c r="L17" s="213">
-        <v>0</v>
-      </c>
-      <c r="M17" s="213">
-        <v>0</v>
-      </c>
-      <c r="N17" s="213">
-        <v>0</v>
-      </c>
-      <c r="O17" s="213">
-        <v>0</v>
-      </c>
-      <c r="P17" s="213">
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
+      </c>
+      <c r="M17" s="33">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
         <v>96</v>
       </c>
-      <c r="Q17" s="213">
+      <c r="Q17" s="33">
         <v>0</v>
       </c>
       <c r="R17" s="193">
@@ -24019,49 +24016,49 @@
       <c r="B18" s="188" t="s">
         <v>544</v>
       </c>
-      <c r="C18" s="213">
+      <c r="C18" s="33">
         <v>13</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D18" s="33">
         <v>123</v>
       </c>
-      <c r="E18" s="213">
+      <c r="E18" s="33">
         <v>112</v>
       </c>
-      <c r="F18" s="213">
+      <c r="F18" s="33">
         <v>66</v>
       </c>
-      <c r="G18" s="213">
+      <c r="G18" s="33">
         <v>95</v>
       </c>
-      <c r="H18" s="213">
-        <v>0</v>
-      </c>
-      <c r="I18" s="213">
+      <c r="H18" s="33">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
         <v>3</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="33">
         <v>60</v>
       </c>
-      <c r="K18" s="213">
-        <v>0</v>
-      </c>
-      <c r="L18" s="213">
-        <v>0</v>
-      </c>
-      <c r="M18" s="213">
-        <v>0</v>
-      </c>
-      <c r="N18" s="213">
-        <v>0</v>
-      </c>
-      <c r="O18" s="213">
-        <v>0</v>
-      </c>
-      <c r="P18" s="213">
+      <c r="K18" s="33">
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
+        <v>0</v>
+      </c>
+      <c r="M18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="O18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
         <v>81</v>
       </c>
-      <c r="Q18" s="213">
+      <c r="Q18" s="33">
         <v>0</v>
       </c>
       <c r="R18" s="193">
@@ -24072,49 +24069,49 @@
       <c r="B19" s="188" t="s">
         <v>545</v>
       </c>
-      <c r="C19" s="213">
-        <v>1</v>
-      </c>
-      <c r="D19" s="213">
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
         <v>5</v>
       </c>
-      <c r="E19" s="213">
+      <c r="E19" s="33">
         <v>5</v>
       </c>
-      <c r="F19" s="213">
-        <v>1</v>
-      </c>
-      <c r="G19" s="213">
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33">
         <v>3</v>
       </c>
-      <c r="H19" s="213">
-        <v>0</v>
-      </c>
-      <c r="I19" s="213">
-        <v>0</v>
-      </c>
-      <c r="J19" s="213">
-        <v>2</v>
-      </c>
-      <c r="K19" s="213">
-        <v>0</v>
-      </c>
-      <c r="L19" s="213">
-        <v>0</v>
-      </c>
-      <c r="M19" s="213">
-        <v>0</v>
-      </c>
-      <c r="N19" s="213">
-        <v>0</v>
-      </c>
-      <c r="O19" s="213">
-        <v>0</v>
-      </c>
-      <c r="P19" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="213">
+      <c r="H19" s="33">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <v>2</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="33">
         <v>0</v>
       </c>
       <c r="R19" s="193">
@@ -24125,49 +24122,49 @@
       <c r="B20" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="C20" s="213">
-        <v>0</v>
-      </c>
-      <c r="D20" s="213">
+      <c r="C20" s="33">
+        <v>0</v>
+      </c>
+      <c r="D20" s="33">
         <v>15</v>
       </c>
-      <c r="E20" s="213">
+      <c r="E20" s="33">
         <v>40</v>
       </c>
-      <c r="F20" s="213">
+      <c r="F20" s="33">
         <v>83</v>
       </c>
-      <c r="G20" s="213">
+      <c r="G20" s="33">
         <v>87</v>
       </c>
-      <c r="H20" s="213">
+      <c r="H20" s="33">
         <v>16</v>
       </c>
-      <c r="I20" s="213">
+      <c r="I20" s="33">
         <v>62</v>
       </c>
-      <c r="J20" s="213">
+      <c r="J20" s="33">
         <v>48</v>
       </c>
-      <c r="K20" s="213">
-        <v>0</v>
-      </c>
-      <c r="L20" s="213">
-        <v>0</v>
-      </c>
-      <c r="M20" s="213">
-        <v>0</v>
-      </c>
-      <c r="N20" s="213">
-        <v>0</v>
-      </c>
-      <c r="O20" s="213">
-        <v>0</v>
-      </c>
-      <c r="P20" s="213">
+      <c r="K20" s="33">
+        <v>0</v>
+      </c>
+      <c r="L20" s="33">
+        <v>0</v>
+      </c>
+      <c r="M20" s="33">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="O20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="33">
         <v>21</v>
       </c>
-      <c r="Q20" s="213">
+      <c r="Q20" s="33">
         <v>0</v>
       </c>
       <c r="R20" s="193">
@@ -24178,49 +24175,49 @@
       <c r="B21" s="188" t="s">
         <v>547</v>
       </c>
-      <c r="C21" s="213">
-        <v>0</v>
-      </c>
-      <c r="D21" s="213">
+      <c r="C21" s="33">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
         <v>8</v>
       </c>
-      <c r="E21" s="213">
+      <c r="E21" s="33">
         <v>23</v>
       </c>
-      <c r="F21" s="213">
+      <c r="F21" s="33">
         <v>59</v>
       </c>
-      <c r="G21" s="213">
+      <c r="G21" s="33">
         <v>31</v>
       </c>
-      <c r="H21" s="213">
+      <c r="H21" s="33">
         <v>7</v>
       </c>
-      <c r="I21" s="213">
+      <c r="I21" s="33">
         <v>30</v>
       </c>
-      <c r="J21" s="213">
+      <c r="J21" s="33">
         <v>23</v>
       </c>
-      <c r="K21" s="213">
-        <v>0</v>
-      </c>
-      <c r="L21" s="213">
-        <v>0</v>
-      </c>
-      <c r="M21" s="213">
-        <v>0</v>
-      </c>
-      <c r="N21" s="213">
-        <v>0</v>
-      </c>
-      <c r="O21" s="213">
-        <v>0</v>
-      </c>
-      <c r="P21" s="213">
+      <c r="K21" s="33">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
+        <v>0</v>
+      </c>
+      <c r="M21" s="33">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
         <v>12</v>
       </c>
-      <c r="Q21" s="213">
+      <c r="Q21" s="33">
         <v>0</v>
       </c>
       <c r="R21" s="193">
@@ -24284,49 +24281,49 @@
       <c r="B23" s="212" t="s">
         <v>549</v>
       </c>
-      <c r="C23" s="213">
+      <c r="C23" s="33">
         <v>8</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D23" s="33">
         <v>24</v>
       </c>
-      <c r="E23" s="213">
+      <c r="E23" s="33">
         <v>8</v>
       </c>
-      <c r="F23" s="213">
+      <c r="F23" s="33">
         <v>16</v>
       </c>
-      <c r="G23" s="213">
+      <c r="G23" s="33">
         <v>8</v>
       </c>
-      <c r="H23" s="213">
-        <v>0</v>
-      </c>
-      <c r="I23" s="213">
-        <v>0</v>
-      </c>
-      <c r="J23" s="213">
+      <c r="H23" s="33">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0</v>
+      </c>
+      <c r="J23" s="33">
         <v>4</v>
       </c>
-      <c r="K23" s="213">
-        <v>0</v>
-      </c>
-      <c r="L23" s="213">
-        <v>0</v>
-      </c>
-      <c r="M23" s="213">
-        <v>0</v>
-      </c>
-      <c r="N23" s="213">
-        <v>0</v>
-      </c>
-      <c r="O23" s="213">
-        <v>0</v>
-      </c>
-      <c r="P23" s="213">
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="33">
         <v>8</v>
       </c>
-      <c r="Q23" s="213">
+      <c r="Q23" s="33">
         <v>0</v>
       </c>
       <c r="R23" s="193">
@@ -24337,49 +24334,49 @@
       <c r="B24" s="188" t="s">
         <v>550</v>
       </c>
-      <c r="C24" s="213">
-        <v>0</v>
-      </c>
-      <c r="D24" s="213">
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+      <c r="D24" s="33">
         <v>24</v>
       </c>
-      <c r="E24" s="213">
+      <c r="E24" s="33">
         <v>16</v>
       </c>
-      <c r="F24" s="213">
-        <v>0</v>
-      </c>
-      <c r="G24" s="213">
+      <c r="F24" s="33">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <v>16</v>
       </c>
-      <c r="H24" s="213">
-        <v>0</v>
-      </c>
-      <c r="I24" s="213">
-        <v>0</v>
-      </c>
-      <c r="J24" s="213">
-        <v>0</v>
-      </c>
-      <c r="K24" s="213">
-        <v>0</v>
-      </c>
-      <c r="L24" s="213">
-        <v>0</v>
-      </c>
-      <c r="M24" s="213">
-        <v>0</v>
-      </c>
-      <c r="N24" s="213">
-        <v>0</v>
-      </c>
-      <c r="O24" s="213">
-        <v>0</v>
-      </c>
-      <c r="P24" s="213">
+      <c r="H24" s="33">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33">
+        <v>0</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="O24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
         <v>16</v>
       </c>
-      <c r="Q24" s="213">
+      <c r="Q24" s="33">
         <v>0</v>
       </c>
       <c r="R24" s="193">
@@ -24390,49 +24387,49 @@
       <c r="B25" s="188" t="s">
         <v>551</v>
       </c>
-      <c r="C25" s="213">
-        <v>0</v>
-      </c>
-      <c r="D25" s="213">
-        <v>0</v>
-      </c>
-      <c r="E25" s="213">
-        <v>0</v>
-      </c>
-      <c r="F25" s="213">
-        <v>0</v>
-      </c>
-      <c r="G25" s="213">
-        <v>0</v>
-      </c>
-      <c r="H25" s="213">
-        <v>0</v>
-      </c>
-      <c r="I25" s="213">
-        <v>0</v>
-      </c>
-      <c r="J25" s="213">
-        <v>0</v>
-      </c>
-      <c r="K25" s="213">
-        <v>0</v>
-      </c>
-      <c r="L25" s="213">
-        <v>0</v>
-      </c>
-      <c r="M25" s="213">
-        <v>0</v>
-      </c>
-      <c r="N25" s="213">
-        <v>0</v>
-      </c>
-      <c r="O25" s="213">
-        <v>0</v>
-      </c>
-      <c r="P25" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="213">
+      <c r="C25" s="33">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="E25" s="33">
+        <v>0</v>
+      </c>
+      <c r="F25" s="33">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="33">
         <v>0</v>
       </c>
       <c r="R25" s="193">
@@ -24443,49 +24440,49 @@
       <c r="B26" s="188" t="s">
         <v>552</v>
       </c>
-      <c r="C26" s="213">
+      <c r="C26" s="33">
         <v>-2</v>
       </c>
-      <c r="D26" s="213">
+      <c r="D26" s="33">
         <v>-2</v>
       </c>
-      <c r="E26" s="213">
-        <v>0</v>
-      </c>
-      <c r="F26" s="213">
+      <c r="E26" s="33">
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
         <v>-2</v>
       </c>
-      <c r="G26" s="213">
-        <v>0</v>
-      </c>
-      <c r="H26" s="213">
-        <v>0</v>
-      </c>
-      <c r="I26" s="213">
-        <v>0</v>
-      </c>
-      <c r="J26" s="213">
-        <v>0</v>
-      </c>
-      <c r="K26" s="213">
-        <v>0</v>
-      </c>
-      <c r="L26" s="213">
-        <v>0</v>
-      </c>
-      <c r="M26" s="213">
-        <v>0</v>
-      </c>
-      <c r="N26" s="213">
-        <v>0</v>
-      </c>
-      <c r="O26" s="213">
-        <v>0</v>
-      </c>
-      <c r="P26" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="213">
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0</v>
+      </c>
+      <c r="J26" s="33">
+        <v>0</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33">
         <v>0</v>
       </c>
       <c r="R26" s="193">
@@ -24496,49 +24493,49 @@
       <c r="B27" s="188" t="s">
         <v>553</v>
       </c>
-      <c r="C27" s="213">
-        <v>0</v>
-      </c>
-      <c r="D27" s="213">
-        <v>0</v>
-      </c>
-      <c r="E27" s="213">
+      <c r="C27" s="33">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0</v>
+      </c>
+      <c r="E27" s="33">
         <v>102</v>
       </c>
-      <c r="F27" s="213">
-        <v>0</v>
-      </c>
-      <c r="G27" s="213">
-        <v>0</v>
-      </c>
-      <c r="H27" s="213">
+      <c r="F27" s="33">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+      <c r="H27" s="33">
         <v>216</v>
       </c>
-      <c r="I27" s="213">
+      <c r="I27" s="33">
         <v>6</v>
       </c>
-      <c r="J27" s="213">
-        <v>0</v>
-      </c>
-      <c r="K27" s="213">
+      <c r="J27" s="33">
+        <v>0</v>
+      </c>
+      <c r="K27" s="33">
         <v>108</v>
       </c>
-      <c r="L27" s="213">
+      <c r="L27" s="33">
         <v>210</v>
       </c>
-      <c r="M27" s="213">
+      <c r="M27" s="33">
         <v>110</v>
       </c>
-      <c r="N27" s="213">
+      <c r="N27" s="33">
         <v>114</v>
       </c>
-      <c r="O27" s="213">
+      <c r="O27" s="33">
         <v>150</v>
       </c>
-      <c r="P27" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="213">
+      <c r="P27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="33">
         <v>36</v>
       </c>
       <c r="R27" s="193">
@@ -24549,49 +24546,49 @@
       <c r="B28" s="211" t="s">
         <v>554</v>
       </c>
-      <c r="C28" s="213">
-        <v>0</v>
-      </c>
-      <c r="D28" s="213">
-        <v>0</v>
-      </c>
-      <c r="E28" s="213">
+      <c r="C28" s="33">
+        <v>0</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0</v>
+      </c>
+      <c r="E28" s="33">
         <v>129</v>
       </c>
-      <c r="F28" s="213">
-        <v>0</v>
-      </c>
-      <c r="G28" s="213">
-        <v>0</v>
-      </c>
-      <c r="H28" s="213">
+      <c r="F28" s="33">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+      <c r="H28" s="33">
         <v>306</v>
       </c>
-      <c r="I28" s="213">
+      <c r="I28" s="33">
         <v>7</v>
       </c>
-      <c r="J28" s="213">
-        <v>0</v>
-      </c>
-      <c r="K28" s="213">
+      <c r="J28" s="33">
+        <v>0</v>
+      </c>
+      <c r="K28" s="33">
         <v>125</v>
       </c>
-      <c r="L28" s="213">
+      <c r="L28" s="33">
         <v>233</v>
       </c>
-      <c r="M28" s="213">
+      <c r="M28" s="33">
         <v>121</v>
       </c>
-      <c r="N28" s="213">
+      <c r="N28" s="33">
         <v>162</v>
       </c>
-      <c r="O28" s="213">
+      <c r="O28" s="33">
         <v>208</v>
       </c>
-      <c r="P28" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="213">
+      <c r="P28" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="33">
         <v>95</v>
       </c>
       <c r="R28" s="193">
@@ -24655,49 +24652,49 @@
       <c r="B30" s="188" t="s">
         <v>556</v>
       </c>
-      <c r="C30" s="213">
-        <v>0</v>
-      </c>
-      <c r="D30" s="213">
-        <v>0</v>
-      </c>
-      <c r="E30" s="213">
+      <c r="C30" s="33">
+        <v>0</v>
+      </c>
+      <c r="D30" s="33">
+        <v>0</v>
+      </c>
+      <c r="E30" s="33">
         <v>7</v>
       </c>
-      <c r="F30" s="213">
-        <v>0</v>
-      </c>
-      <c r="G30" s="213">
-        <v>0</v>
-      </c>
-      <c r="H30" s="213">
+      <c r="F30" s="33">
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="33">
         <v>25</v>
       </c>
-      <c r="I30" s="213">
-        <v>1</v>
-      </c>
-      <c r="J30" s="213">
-        <v>0</v>
-      </c>
-      <c r="K30" s="213">
+      <c r="I30" s="33">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0</v>
+      </c>
+      <c r="K30" s="33">
         <v>10</v>
       </c>
-      <c r="L30" s="213">
-        <v>2</v>
-      </c>
-      <c r="M30" s="213">
+      <c r="L30" s="33">
+        <v>2</v>
+      </c>
+      <c r="M30" s="33">
         <v>15</v>
       </c>
-      <c r="N30" s="213">
+      <c r="N30" s="33">
         <v>15</v>
       </c>
-      <c r="O30" s="213">
+      <c r="O30" s="33">
         <v>8</v>
       </c>
-      <c r="P30" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="213">
+      <c r="P30" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="33">
         <v>5</v>
       </c>
       <c r="R30" s="193">
@@ -24761,49 +24758,49 @@
       <c r="B32" s="212" t="s">
         <v>558</v>
       </c>
-      <c r="C32" s="213">
-        <v>0</v>
-      </c>
-      <c r="D32" s="213">
-        <v>0</v>
-      </c>
-      <c r="E32" s="213">
+      <c r="C32" s="33">
+        <v>0</v>
+      </c>
+      <c r="D32" s="33">
+        <v>0</v>
+      </c>
+      <c r="E32" s="33">
         <v>77</v>
       </c>
-      <c r="F32" s="213">
-        <v>0</v>
-      </c>
-      <c r="G32" s="213">
-        <v>0</v>
-      </c>
-      <c r="H32" s="213">
+      <c r="F32" s="33">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+      <c r="H32" s="33">
         <v>38</v>
       </c>
-      <c r="I32" s="213">
-        <v>0</v>
-      </c>
-      <c r="J32" s="213">
-        <v>0</v>
-      </c>
-      <c r="K32" s="213">
+      <c r="I32" s="33">
+        <v>0</v>
+      </c>
+      <c r="J32" s="33">
+        <v>0</v>
+      </c>
+      <c r="K32" s="33">
         <v>7</v>
       </c>
-      <c r="L32" s="213">
+      <c r="L32" s="33">
         <v>139</v>
       </c>
-      <c r="M32" s="213">
-        <v>0</v>
-      </c>
-      <c r="N32" s="213">
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
         <v>15</v>
       </c>
-      <c r="O32" s="213">
+      <c r="O32" s="33">
         <v>71</v>
       </c>
-      <c r="P32" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="213">
+      <c r="P32" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="33">
         <v>0</v>
       </c>
       <c r="R32" s="193">
@@ -24814,49 +24811,49 @@
       <c r="B33" s="188" t="s">
         <v>559</v>
       </c>
-      <c r="C33" s="213">
-        <v>0</v>
-      </c>
-      <c r="D33" s="213">
-        <v>0</v>
-      </c>
-      <c r="E33" s="213">
+      <c r="C33" s="33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="33">
         <v>52</v>
       </c>
-      <c r="F33" s="213">
-        <v>0</v>
-      </c>
-      <c r="G33" s="213">
-        <v>0</v>
-      </c>
-      <c r="H33" s="213">
+      <c r="F33" s="33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="33">
         <v>206</v>
       </c>
-      <c r="I33" s="213">
+      <c r="I33" s="33">
         <v>7</v>
       </c>
-      <c r="J33" s="213">
-        <v>0</v>
-      </c>
-      <c r="K33" s="213">
+      <c r="J33" s="33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="33">
         <v>75</v>
       </c>
-      <c r="L33" s="213">
+      <c r="L33" s="33">
         <v>14</v>
       </c>
-      <c r="M33" s="213">
+      <c r="M33" s="33">
         <v>97</v>
       </c>
-      <c r="N33" s="213">
+      <c r="N33" s="33">
         <v>133</v>
       </c>
-      <c r="O33" s="213">
+      <c r="O33" s="33">
         <v>62</v>
       </c>
-      <c r="P33" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="213">
+      <c r="P33" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="33">
         <v>64</v>
       </c>
       <c r="R33" s="193">
@@ -24867,49 +24864,49 @@
       <c r="B34" s="211" t="s">
         <v>560</v>
       </c>
-      <c r="C34" s="213">
-        <v>0</v>
-      </c>
-      <c r="D34" s="213">
-        <v>0</v>
-      </c>
-      <c r="E34" s="213">
-        <v>0</v>
-      </c>
-      <c r="F34" s="213">
-        <v>0</v>
-      </c>
-      <c r="G34" s="213">
-        <v>0</v>
-      </c>
-      <c r="H34" s="213">
+      <c r="C34" s="33">
+        <v>0</v>
+      </c>
+      <c r="D34" s="33">
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
+      <c r="F34" s="33">
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+      <c r="H34" s="33">
         <v>62</v>
       </c>
-      <c r="I34" s="213">
-        <v>0</v>
-      </c>
-      <c r="J34" s="213">
-        <v>0</v>
-      </c>
-      <c r="K34" s="213">
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0</v>
+      </c>
+      <c r="K34" s="33">
         <v>43</v>
       </c>
-      <c r="L34" s="213">
+      <c r="L34" s="33">
         <v>80</v>
       </c>
-      <c r="M34" s="213">
+      <c r="M34" s="33">
         <v>24</v>
       </c>
-      <c r="N34" s="213">
+      <c r="N34" s="33">
         <v>14</v>
       </c>
-      <c r="O34" s="213">
+      <c r="O34" s="33">
         <v>75</v>
       </c>
-      <c r="P34" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="213">
+      <c r="P34" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="33">
         <v>31</v>
       </c>
       <c r="R34" s="193">
@@ -24965,7 +24962,7 @@
       <c r="Q35" s="190">
         <v>0</v>
       </c>
-      <c r="R35" s="192">
+      <c r="R35" s="190">
         <v>0</v>
       </c>
     </row>
@@ -24973,52 +24970,52 @@
       <c r="B36" s="188" t="s">
         <v>562</v>
       </c>
-      <c r="C36" s="213">
-        <v>0</v>
-      </c>
-      <c r="D36" s="213">
-        <v>0</v>
-      </c>
-      <c r="E36" s="213">
-        <v>0</v>
-      </c>
-      <c r="F36" s="213">
-        <v>0</v>
-      </c>
-      <c r="G36" s="213">
-        <v>0</v>
-      </c>
-      <c r="H36" s="213">
+      <c r="C36" s="33">
+        <v>0</v>
+      </c>
+      <c r="D36" s="33">
+        <v>0</v>
+      </c>
+      <c r="E36" s="33">
+        <v>0</v>
+      </c>
+      <c r="F36" s="33">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33">
+        <v>0</v>
+      </c>
+      <c r="H36" s="33">
         <v>8</v>
       </c>
-      <c r="I36" s="213">
-        <v>0</v>
-      </c>
-      <c r="J36" s="213">
-        <v>0</v>
-      </c>
-      <c r="K36" s="213">
-        <v>2</v>
-      </c>
-      <c r="L36" s="213">
-        <v>0</v>
-      </c>
-      <c r="M36" s="213">
+      <c r="I36" s="33">
+        <v>0</v>
+      </c>
+      <c r="J36" s="33">
+        <v>0</v>
+      </c>
+      <c r="K36" s="33">
+        <v>2</v>
+      </c>
+      <c r="L36" s="33">
+        <v>0</v>
+      </c>
+      <c r="M36" s="33">
         <v>6</v>
       </c>
-      <c r="N36" s="213">
+      <c r="N36" s="33">
         <v>4</v>
       </c>
-      <c r="O36" s="213">
+      <c r="O36" s="33">
         <v>3</v>
       </c>
-      <c r="P36" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="213">
-        <v>0</v>
-      </c>
-      <c r="R36" s="193">
+      <c r="P36" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>0</v>
+      </c>
+      <c r="R36" s="33">
         <v>0</v>
       </c>
     </row>
@@ -25071,7 +25068,7 @@
       <c r="Q37" s="191">
         <v>0</v>
       </c>
-      <c r="R37" s="194">
+      <c r="R37" s="191">
         <v>0</v>
       </c>
     </row>
@@ -25079,78 +25076,78 @@
       <c r="B38" s="212" t="s">
         <v>564</v>
       </c>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="213" t="s">
+      <c r="D38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="213" t="s">
+      <c r="E38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="213" t="s">
+      <c r="F38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="213" t="s">
+      <c r="G38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="H38" s="213" t="s">
+      <c r="H38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="213" t="s">
+      <c r="I38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="J38" s="213" t="s">
+      <c r="J38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="K38" s="213"/>
-      <c r="L38" s="213"/>
-      <c r="M38" s="213"/>
-      <c r="N38" s="213"/>
-      <c r="O38" s="213"/>
-      <c r="P38" s="213" t="s">
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="Q38" s="213"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="193"/>
     </row>
     <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="211" t="s">
         <v>565</v>
       </c>
-      <c r="C39" s="213" t="s">
+      <c r="C39" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="D39" s="213" t="s">
+      <c r="D39" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="E39" s="213" t="s">
+      <c r="E39" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F39" s="213" t="s">
+      <c r="F39" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="G39" s="213" t="s">
+      <c r="G39" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="H39" s="213" t="s">
+      <c r="H39" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="I39" s="213" t="s">
+      <c r="I39" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="J39" s="213" t="s">
+      <c r="J39" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="K39" s="213"/>
-      <c r="L39" s="213"/>
-      <c r="M39" s="213"/>
-      <c r="N39" s="213"/>
-      <c r="O39" s="213"/>
-      <c r="P39" s="213" t="s">
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="Q39" s="213"/>
+      <c r="Q39" s="33"/>
       <c r="R39" s="193"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
@@ -25192,239 +25189,239 @@
       <c r="B41" s="188" t="s">
         <v>616</v>
       </c>
-      <c r="C41" s="213">
+      <c r="C41" s="33">
         <v>14</v>
       </c>
-      <c r="D41" s="213">
+      <c r="D41" s="33">
         <v>14</v>
       </c>
-      <c r="E41" s="213">
+      <c r="E41" s="33">
         <v>5</v>
       </c>
-      <c r="F41" s="213">
+      <c r="F41" s="33">
         <v>31</v>
       </c>
-      <c r="G41" s="213">
+      <c r="G41" s="33">
         <v>29</v>
       </c>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213"/>
-      <c r="M41" s="213"/>
-      <c r="N41" s="213"/>
-      <c r="O41" s="213"/>
-      <c r="P41" s="213">
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33">
         <v>62</v>
       </c>
-      <c r="Q41" s="213"/>
+      <c r="Q41" s="33"/>
       <c r="R41" s="193"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="188" t="s">
         <v>617</v>
       </c>
-      <c r="C42" s="213">
+      <c r="C42" s="33">
         <v>17</v>
       </c>
-      <c r="D42" s="213">
+      <c r="D42" s="33">
         <v>39</v>
       </c>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213">
-        <v>2</v>
-      </c>
-      <c r="G42" s="213">
+      <c r="E42" s="33"/>
+      <c r="F42" s="33">
+        <v>2</v>
+      </c>
+      <c r="G42" s="33">
         <v>63</v>
       </c>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213">
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33">
         <v>14</v>
       </c>
-      <c r="K42" s="213"/>
-      <c r="L42" s="213"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="213"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213">
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33">
         <v>53</v>
       </c>
-      <c r="Q42" s="213"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="193"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" s="188" t="s">
         <v>618</v>
       </c>
-      <c r="C43" s="213">
+      <c r="C43" s="33">
         <v>30</v>
       </c>
-      <c r="D43" s="213">
+      <c r="D43" s="33">
         <v>67</v>
       </c>
-      <c r="E43" s="213">
+      <c r="E43" s="33">
         <v>8</v>
       </c>
-      <c r="F43" s="213">
+      <c r="F43" s="33">
         <v>17</v>
       </c>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213">
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33">
         <v>5</v>
       </c>
-      <c r="J43" s="213"/>
-      <c r="K43" s="213"/>
-      <c r="L43" s="213"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="213"/>
-      <c r="P43" s="213">
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33">
         <v>19</v>
       </c>
-      <c r="Q43" s="213"/>
+      <c r="Q43" s="33"/>
       <c r="R43" s="193"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" s="188" t="s">
         <v>619</v>
       </c>
-      <c r="C44" s="213">
+      <c r="C44" s="33">
         <v>4</v>
       </c>
-      <c r="D44" s="213">
+      <c r="D44" s="33">
         <v>45</v>
       </c>
-      <c r="E44" s="213">
+      <c r="E44" s="33">
         <v>28</v>
       </c>
-      <c r="F44" s="213">
+      <c r="F44" s="33">
         <v>46</v>
       </c>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213">
-        <v>1</v>
-      </c>
-      <c r="I44" s="213">
-        <v>1</v>
-      </c>
-      <c r="J44" s="213">
+      <c r="G44" s="33"/>
+      <c r="H44" s="33">
+        <v>1</v>
+      </c>
+      <c r="I44" s="33">
+        <v>1</v>
+      </c>
+      <c r="J44" s="33">
         <v>27</v>
       </c>
-      <c r="K44" s="213"/>
-      <c r="L44" s="213"/>
-      <c r="M44" s="213"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33">
         <v>20</v>
       </c>
-      <c r="Q44" s="213"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="193"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="188" t="s">
         <v>620</v>
       </c>
-      <c r="C45" s="213">
+      <c r="C45" s="33">
         <v>47</v>
       </c>
-      <c r="D45" s="213">
-        <v>0</v>
-      </c>
-      <c r="E45" s="213">
+      <c r="D45" s="33">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33">
         <v>66</v>
       </c>
-      <c r="F45" s="213">
+      <c r="F45" s="33">
         <v>6</v>
       </c>
-      <c r="G45" s="213">
+      <c r="G45" s="33">
         <v>10</v>
       </c>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213">
-        <v>2</v>
-      </c>
-      <c r="J45" s="213">
+      <c r="H45" s="33"/>
+      <c r="I45" s="33">
+        <v>2</v>
+      </c>
+      <c r="J45" s="33">
         <v>3</v>
       </c>
-      <c r="K45" s="213"/>
-      <c r="L45" s="213"/>
-      <c r="M45" s="213"/>
-      <c r="N45" s="213"/>
-      <c r="O45" s="213"/>
-      <c r="P45" s="213"/>
-      <c r="Q45" s="213"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
       <c r="R45" s="193"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" s="188" t="s">
         <v>621</v>
       </c>
-      <c r="C46" s="213">
+      <c r="C46" s="33">
         <v>4</v>
       </c>
-      <c r="D46" s="213">
+      <c r="D46" s="33">
         <v>56</v>
       </c>
-      <c r="E46" s="213">
+      <c r="E46" s="33">
         <v>13</v>
       </c>
-      <c r="F46" s="213">
+      <c r="F46" s="33">
         <v>46</v>
       </c>
-      <c r="G46" s="213">
+      <c r="G46" s="33">
         <v>19</v>
       </c>
-      <c r="H46" s="213">
-        <v>2</v>
-      </c>
-      <c r="I46" s="213">
+      <c r="H46" s="33">
+        <v>2</v>
+      </c>
+      <c r="I46" s="33">
         <v>20</v>
       </c>
-      <c r="J46" s="213">
+      <c r="J46" s="33">
         <v>42</v>
       </c>
-      <c r="K46" s="213"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
-      <c r="Q46" s="213"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
       <c r="R46" s="193"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" s="188" t="s">
         <v>622</v>
       </c>
-      <c r="C47" s="213">
+      <c r="C47" s="33">
         <v>10</v>
       </c>
-      <c r="D47" s="213">
+      <c r="D47" s="33">
         <v>49</v>
       </c>
-      <c r="E47" s="213">
+      <c r="E47" s="33">
         <v>26</v>
       </c>
-      <c r="F47" s="213">
+      <c r="F47" s="33">
         <v>32</v>
       </c>
-      <c r="G47" s="213">
+      <c r="G47" s="33">
         <v>51</v>
       </c>
-      <c r="H47" s="213"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="213"/>
-      <c r="L47" s="213"/>
-      <c r="M47" s="213"/>
-      <c r="N47" s="213"/>
-      <c r="O47" s="213"/>
-      <c r="P47" s="213"/>
-      <c r="Q47" s="213"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
       <c r="R47" s="193"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25468,37 +25465,37 @@
       <c r="B49" s="212" t="s">
         <v>566</v>
       </c>
-      <c r="C49" s="213"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="213" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F49" s="213"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213" t="s">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="I49" s="213" t="s">
+      <c r="I49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="J49" s="213"/>
-      <c r="K49" s="213" t="s">
+      <c r="J49" s="33"/>
+      <c r="K49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="L49" s="213" t="s">
+      <c r="L49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="M49" s="213" t="s">
+      <c r="M49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="N49" s="213" t="s">
+      <c r="N49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="O49" s="213" t="s">
+      <c r="O49" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="P49" s="213"/>
-      <c r="Q49" s="213" t="s">
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33" t="s">
         <v>207</v>
       </c>
       <c r="R49" s="193" t="s">
@@ -25509,37 +25506,37 @@
       <c r="B50" s="211" t="s">
         <v>567</v>
       </c>
-      <c r="C50" s="213"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="213" t="s">
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="F50" s="213"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="I50" s="213" t="s">
+      <c r="I50" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="J50" s="213"/>
-      <c r="K50" s="213" t="s">
+      <c r="J50" s="33"/>
+      <c r="K50" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="L50" s="213" t="s">
+      <c r="L50" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="M50" s="213" t="s">
+      <c r="M50" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="N50" s="213" t="s">
+      <c r="N50" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="O50" s="213" t="s">
+      <c r="O50" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="P50" s="213"/>
-      <c r="Q50" s="213" t="s">
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33" t="s">
         <v>593</v>
       </c>
       <c r="R50" s="193" t="s">
@@ -25583,31 +25580,31 @@
       <c r="B52" s="188" t="s">
         <v>613</v>
       </c>
-      <c r="C52" s="213"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213">
-        <v>0</v>
-      </c>
-      <c r="F52" s="213"/>
-      <c r="G52" s="213"/>
-      <c r="H52" s="213">
+      <c r="C52" s="222"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="222">
+        <v>0</v>
+      </c>
+      <c r="F52" s="222"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="222">
         <v>3</v>
       </c>
-      <c r="I52" s="213"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="213"/>
-      <c r="L52" s="213">
+      <c r="I52" s="222"/>
+      <c r="J52" s="222"/>
+      <c r="K52" s="222"/>
+      <c r="L52" s="222">
         <v>3</v>
       </c>
-      <c r="M52" s="213"/>
-      <c r="N52" s="213">
-        <v>2</v>
-      </c>
-      <c r="O52" s="213">
-        <v>0</v>
-      </c>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="213">
+      <c r="M52" s="222"/>
+      <c r="N52" s="222">
+        <v>2</v>
+      </c>
+      <c r="O52" s="222">
+        <v>0</v>
+      </c>
+      <c r="P52" s="222"/>
+      <c r="Q52" s="222">
         <v>0</v>
       </c>
       <c r="R52" s="193"/>
@@ -25616,29 +25613,29 @@
       <c r="B53" s="188" t="s">
         <v>606</v>
       </c>
-      <c r="C53" s="213"/>
-      <c r="D53" s="213"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213">
+      <c r="C53" s="222"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="222"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="222">
         <v>3</v>
       </c>
-      <c r="I53" s="213"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="213"/>
-      <c r="L53" s="213">
-        <v>1</v>
-      </c>
-      <c r="M53" s="213"/>
-      <c r="N53" s="213">
-        <v>2</v>
-      </c>
-      <c r="O53" s="213">
-        <v>1</v>
-      </c>
-      <c r="P53" s="213"/>
-      <c r="Q53" s="213">
+      <c r="I53" s="222"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="222"/>
+      <c r="L53" s="222">
+        <v>1</v>
+      </c>
+      <c r="M53" s="222"/>
+      <c r="N53" s="222">
+        <v>2</v>
+      </c>
+      <c r="O53" s="222">
+        <v>1</v>
+      </c>
+      <c r="P53" s="222"/>
+      <c r="Q53" s="222">
         <v>0</v>
       </c>
       <c r="R53" s="193"/>
@@ -25647,97 +25644,97 @@
       <c r="B54" s="188" t="s">
         <v>607</v>
       </c>
-      <c r="C54" s="213"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="213"/>
-      <c r="H54" s="213">
-        <v>1</v>
-      </c>
-      <c r="I54" s="213"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="213">
-        <v>2</v>
-      </c>
-      <c r="L54" s="213">
-        <v>1</v>
-      </c>
-      <c r="M54" s="213"/>
-      <c r="N54" s="213">
-        <v>1</v>
-      </c>
-      <c r="O54" s="213">
+      <c r="C54" s="222"/>
+      <c r="D54" s="222"/>
+      <c r="E54" s="222"/>
+      <c r="F54" s="222"/>
+      <c r="G54" s="222"/>
+      <c r="H54" s="222">
+        <v>1</v>
+      </c>
+      <c r="I54" s="222"/>
+      <c r="J54" s="222"/>
+      <c r="K54" s="222">
+        <v>2</v>
+      </c>
+      <c r="L54" s="222">
+        <v>1</v>
+      </c>
+      <c r="M54" s="222"/>
+      <c r="N54" s="222">
+        <v>1</v>
+      </c>
+      <c r="O54" s="222">
         <v>3</v>
       </c>
-      <c r="P54" s="213"/>
-      <c r="Q54" s="213"/>
+      <c r="P54" s="222"/>
+      <c r="Q54" s="222"/>
       <c r="R54" s="193"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" s="188" t="s">
         <v>608</v>
       </c>
-      <c r="C55" s="213"/>
-      <c r="D55" s="213"/>
-      <c r="E55" s="213">
-        <v>1</v>
-      </c>
-      <c r="F55" s="213"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213">
-        <v>2</v>
-      </c>
-      <c r="I55" s="213"/>
-      <c r="J55" s="213"/>
-      <c r="K55" s="213">
-        <v>0</v>
-      </c>
-      <c r="L55" s="213">
+      <c r="C55" s="222"/>
+      <c r="D55" s="222"/>
+      <c r="E55" s="222">
+        <v>1</v>
+      </c>
+      <c r="F55" s="222"/>
+      <c r="G55" s="222"/>
+      <c r="H55" s="222">
+        <v>2</v>
+      </c>
+      <c r="I55" s="222"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="222">
+        <v>0</v>
+      </c>
+      <c r="L55" s="222">
         <v>3</v>
       </c>
-      <c r="M55" s="213">
-        <v>1</v>
-      </c>
-      <c r="N55" s="213">
-        <v>0</v>
-      </c>
-      <c r="O55" s="213"/>
-      <c r="P55" s="213"/>
-      <c r="Q55" s="213"/>
+      <c r="M55" s="222">
+        <v>1</v>
+      </c>
+      <c r="N55" s="222">
+        <v>0</v>
+      </c>
+      <c r="O55" s="222"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="222"/>
       <c r="R55" s="193"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" s="188" t="s">
         <v>609</v>
       </c>
-      <c r="C56" s="213"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="213">
-        <v>0</v>
-      </c>
-      <c r="F56" s="213"/>
-      <c r="G56" s="213"/>
-      <c r="H56" s="213">
-        <v>1</v>
-      </c>
-      <c r="I56" s="213">
-        <v>0</v>
-      </c>
-      <c r="J56" s="213"/>
-      <c r="K56" s="213">
+      <c r="C56" s="222"/>
+      <c r="D56" s="222"/>
+      <c r="E56" s="222">
+        <v>0</v>
+      </c>
+      <c r="F56" s="222"/>
+      <c r="G56" s="222"/>
+      <c r="H56" s="222">
+        <v>1</v>
+      </c>
+      <c r="I56" s="222">
+        <v>0</v>
+      </c>
+      <c r="J56" s="222"/>
+      <c r="K56" s="222">
         <v>4</v>
       </c>
-      <c r="L56" s="213">
-        <v>0</v>
-      </c>
-      <c r="M56" s="213">
-        <v>2</v>
-      </c>
-      <c r="N56" s="213"/>
-      <c r="O56" s="213"/>
-      <c r="P56" s="213"/>
-      <c r="Q56" s="213"/>
+      <c r="L56" s="222">
+        <v>0</v>
+      </c>
+      <c r="M56" s="222">
+        <v>2</v>
+      </c>
+      <c r="N56" s="222"/>
+      <c r="O56" s="222"/>
+      <c r="P56" s="222"/>
+      <c r="Q56" s="222"/>
       <c r="R56" s="193">
         <v>0</v>
       </c>
@@ -25746,66 +25743,66 @@
       <c r="B57" s="188" t="s">
         <v>610</v>
       </c>
-      <c r="C57" s="213"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="213">
-        <v>1</v>
-      </c>
-      <c r="F57" s="213"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213">
-        <v>2</v>
-      </c>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="213">
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="222">
+        <v>1</v>
+      </c>
+      <c r="F57" s="222"/>
+      <c r="G57" s="222"/>
+      <c r="H57" s="222">
+        <v>2</v>
+      </c>
+      <c r="I57" s="222"/>
+      <c r="J57" s="222"/>
+      <c r="K57" s="222">
         <v>3</v>
       </c>
-      <c r="L57" s="213">
-        <v>0</v>
-      </c>
-      <c r="M57" s="213">
+      <c r="L57" s="222">
+        <v>0</v>
+      </c>
+      <c r="M57" s="222">
         <v>3</v>
       </c>
-      <c r="N57" s="213"/>
-      <c r="O57" s="213">
-        <v>0</v>
-      </c>
-      <c r="P57" s="213"/>
-      <c r="Q57" s="213"/>
+      <c r="N57" s="222"/>
+      <c r="O57" s="222">
+        <v>0</v>
+      </c>
+      <c r="P57" s="222"/>
+      <c r="Q57" s="222"/>
       <c r="R57" s="193"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" s="188" t="s">
         <v>611</v>
       </c>
-      <c r="C58" s="213"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213">
-        <v>0</v>
-      </c>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213">
-        <v>0</v>
-      </c>
-      <c r="I58" s="213"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="213">
-        <v>0</v>
-      </c>
-      <c r="L58" s="213">
+      <c r="C58" s="222"/>
+      <c r="D58" s="222"/>
+      <c r="E58" s="222">
+        <v>0</v>
+      </c>
+      <c r="F58" s="222"/>
+      <c r="G58" s="222"/>
+      <c r="H58" s="222">
+        <v>0</v>
+      </c>
+      <c r="I58" s="222"/>
+      <c r="J58" s="222"/>
+      <c r="K58" s="222">
+        <v>0</v>
+      </c>
+      <c r="L58" s="222">
         <v>3</v>
       </c>
-      <c r="M58" s="213">
-        <v>2</v>
-      </c>
-      <c r="N58" s="213"/>
-      <c r="O58" s="213">
-        <v>2</v>
-      </c>
-      <c r="P58" s="213"/>
-      <c r="Q58" s="213"/>
+      <c r="M58" s="222">
+        <v>2</v>
+      </c>
+      <c r="N58" s="222"/>
+      <c r="O58" s="222">
+        <v>2</v>
+      </c>
+      <c r="P58" s="222"/>
+      <c r="Q58" s="222"/>
       <c r="R58" s="193"/>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25884,39 +25881,39 @@
       <c r="B61" s="188" t="s">
         <v>625</v>
       </c>
-      <c r="C61" s="213">
+      <c r="C61" s="33">
         <v>9</v>
       </c>
-      <c r="D61" s="213">
+      <c r="D61" s="33">
         <v>47</v>
       </c>
-      <c r="E61" s="213">
+      <c r="E61" s="33">
         <v>59</v>
       </c>
-      <c r="F61" s="213">
+      <c r="F61" s="33">
         <v>54</v>
       </c>
-      <c r="G61" s="213">
+      <c r="G61" s="33">
         <v>55</v>
       </c>
-      <c r="H61" s="213">
-        <v>0</v>
-      </c>
-      <c r="I61" s="213">
-        <v>2</v>
-      </c>
-      <c r="J61" s="213">
+      <c r="H61" s="33">
+        <v>0</v>
+      </c>
+      <c r="I61" s="33">
+        <v>2</v>
+      </c>
+      <c r="J61" s="33">
         <v>57</v>
       </c>
-      <c r="K61" s="213"/>
-      <c r="L61" s="213"/>
-      <c r="M61" s="213"/>
-      <c r="N61" s="213"/>
-      <c r="O61" s="213"/>
-      <c r="P61" s="213">
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33">
         <v>55</v>
       </c>
-      <c r="Q61" s="213"/>
+      <c r="Q61" s="33"/>
       <c r="R61" s="193"/>
     </row>
     <row r="62" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25962,49 +25959,49 @@
       <c r="B63" s="212" t="s">
         <v>568</v>
       </c>
-      <c r="C63" s="213">
+      <c r="C63" s="33">
         <v>151</v>
       </c>
-      <c r="D63" s="213">
+      <c r="D63" s="33">
         <v>339</v>
       </c>
-      <c r="E63" s="213">
+      <c r="E63" s="33">
         <v>213</v>
       </c>
-      <c r="F63" s="213">
+      <c r="F63" s="33">
         <v>180</v>
       </c>
-      <c r="G63" s="213">
+      <c r="G63" s="33">
         <v>205</v>
       </c>
-      <c r="H63" s="213">
+      <c r="H63" s="33">
         <v>16</v>
       </c>
-      <c r="I63" s="213">
+      <c r="I63" s="33">
         <v>63</v>
       </c>
-      <c r="J63" s="213">
+      <c r="J63" s="33">
         <v>112</v>
       </c>
-      <c r="K63" s="213">
-        <v>0</v>
-      </c>
-      <c r="L63" s="213">
-        <v>0</v>
-      </c>
-      <c r="M63" s="213">
-        <v>0</v>
-      </c>
-      <c r="N63" s="213">
-        <v>0</v>
-      </c>
-      <c r="O63" s="213">
-        <v>0</v>
-      </c>
-      <c r="P63" s="213">
+      <c r="K63" s="33">
+        <v>0</v>
+      </c>
+      <c r="L63" s="33">
+        <v>0</v>
+      </c>
+      <c r="M63" s="33">
+        <v>0</v>
+      </c>
+      <c r="N63" s="33">
+        <v>0</v>
+      </c>
+      <c r="O63" s="33">
+        <v>0</v>
+      </c>
+      <c r="P63" s="33">
         <v>176</v>
       </c>
-      <c r="Q63" s="213">
+      <c r="Q63" s="33">
         <v>0</v>
       </c>
       <c r="R63" s="193">
@@ -26015,49 +26012,49 @@
       <c r="B64" s="188" t="s">
         <v>569</v>
       </c>
-      <c r="C64" s="213">
+      <c r="C64" s="33">
         <v>9</v>
       </c>
-      <c r="D64" s="213">
+      <c r="D64" s="33">
         <v>9</v>
       </c>
-      <c r="E64" s="213">
+      <c r="E64" s="33">
         <v>8</v>
       </c>
-      <c r="F64" s="213">
+      <c r="F64" s="33">
         <v>8</v>
       </c>
-      <c r="G64" s="213">
+      <c r="G64" s="33">
         <v>7</v>
       </c>
-      <c r="H64" s="213">
+      <c r="H64" s="33">
         <v>9</v>
       </c>
-      <c r="I64" s="213">
+      <c r="I64" s="33">
         <v>6</v>
       </c>
-      <c r="J64" s="213">
+      <c r="J64" s="33">
         <v>5</v>
       </c>
-      <c r="K64" s="213">
+      <c r="K64" s="33">
         <v>6</v>
       </c>
-      <c r="L64" s="213">
+      <c r="L64" s="33">
         <v>9</v>
       </c>
-      <c r="M64" s="213">
+      <c r="M64" s="33">
         <v>5</v>
       </c>
-      <c r="N64" s="213">
+      <c r="N64" s="33">
         <v>5</v>
       </c>
-      <c r="O64" s="213">
+      <c r="O64" s="33">
         <v>7</v>
       </c>
-      <c r="P64" s="213">
+      <c r="P64" s="33">
         <v>5</v>
       </c>
-      <c r="Q64" s="213">
+      <c r="Q64" s="33">
         <v>3</v>
       </c>
       <c r="R64" s="193">
@@ -26068,37 +26065,37 @@
       <c r="B65" s="188" t="s">
         <v>570</v>
       </c>
-      <c r="C65" s="213"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="213">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33">
         <v>59</v>
       </c>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="213">
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33">
         <v>11</v>
       </c>
-      <c r="I65" s="213">
-        <v>0</v>
-      </c>
-      <c r="J65" s="213"/>
-      <c r="K65" s="213">
+      <c r="I65" s="33">
+        <v>0</v>
+      </c>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33">
         <v>6</v>
       </c>
-      <c r="L65" s="213">
+      <c r="L65" s="33">
         <v>71</v>
       </c>
-      <c r="M65" s="213">
-        <v>0</v>
-      </c>
-      <c r="N65" s="213">
+      <c r="M65" s="33">
+        <v>0</v>
+      </c>
+      <c r="N65" s="33">
         <v>11</v>
       </c>
-      <c r="O65" s="213">
+      <c r="O65" s="33">
         <v>40</v>
       </c>
-      <c r="P65" s="213"/>
-      <c r="Q65" s="213">
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33">
         <v>0</v>
       </c>
       <c r="R65" s="193">
@@ -26109,37 +26106,37 @@
       <c r="B66" s="188" t="s">
         <v>571</v>
       </c>
-      <c r="C66" s="213"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="213">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33">
         <v>41</v>
       </c>
-      <c r="F66" s="213"/>
-      <c r="G66" s="213"/>
-      <c r="H66" s="213">
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33">
         <v>69</v>
       </c>
-      <c r="I66" s="213">
+      <c r="I66" s="33">
         <v>100</v>
       </c>
-      <c r="J66" s="213"/>
-      <c r="K66" s="213">
+      <c r="J66" s="33"/>
+      <c r="K66" s="33">
         <v>56</v>
       </c>
-      <c r="L66" s="213">
+      <c r="L66" s="33">
         <v>6</v>
       </c>
-      <c r="M66" s="213">
+      <c r="M66" s="33">
         <v>79</v>
       </c>
-      <c r="N66" s="213">
+      <c r="N66" s="33">
         <v>79</v>
       </c>
-      <c r="O66" s="213">
+      <c r="O66" s="33">
         <v>32</v>
       </c>
-      <c r="P66" s="213"/>
-      <c r="Q66" s="213">
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33">
         <v>83</v>
       </c>
       <c r="R66" s="193">
@@ -26150,37 +26147,37 @@
       <c r="B67" s="211" t="s">
         <v>572</v>
       </c>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213">
-        <v>0</v>
-      </c>
-      <c r="F67" s="213"/>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33">
+        <v>0</v>
+      </c>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33">
         <v>19</v>
       </c>
-      <c r="I67" s="213">
-        <v>0</v>
-      </c>
-      <c r="J67" s="213"/>
-      <c r="K67" s="213">
+      <c r="I67" s="33">
+        <v>0</v>
+      </c>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33">
         <v>39</v>
       </c>
-      <c r="L67" s="213">
+      <c r="L67" s="33">
         <v>23</v>
       </c>
-      <c r="M67" s="213">
+      <c r="M67" s="33">
         <v>21</v>
       </c>
-      <c r="N67" s="213">
+      <c r="N67" s="33">
         <v>11</v>
       </c>
-      <c r="O67" s="213">
+      <c r="O67" s="33">
         <v>28</v>
       </c>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="213">
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33">
         <v>17</v>
       </c>
       <c r="R67" s="193">
@@ -26226,35 +26223,35 @@
       <c r="B69" s="188" t="s">
         <v>628</v>
       </c>
-      <c r="C69" s="213"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="213">
-        <v>0</v>
-      </c>
-      <c r="F69" s="213"/>
-      <c r="G69" s="213"/>
-      <c r="H69" s="213">
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33">
+        <v>0</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33">
         <v>53</v>
       </c>
-      <c r="I69" s="213"/>
-      <c r="J69" s="213"/>
-      <c r="K69" s="213">
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33">
         <v>18</v>
       </c>
-      <c r="L69" s="213">
-        <v>0</v>
-      </c>
-      <c r="M69" s="213">
+      <c r="L69" s="33">
+        <v>0</v>
+      </c>
+      <c r="M69" s="33">
         <v>75</v>
       </c>
-      <c r="N69" s="213">
+      <c r="N69" s="33">
         <v>57</v>
       </c>
-      <c r="O69" s="213">
+      <c r="O69" s="33">
         <v>43</v>
       </c>
-      <c r="P69" s="213"/>
-      <c r="Q69" s="213"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
       <c r="R69" s="193"/>
     </row>
     <row r="70" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26296,49 +26293,49 @@
       <c r="B71" s="212" t="s">
         <v>576</v>
       </c>
-      <c r="C71" s="213">
-        <v>0</v>
-      </c>
-      <c r="D71" s="213">
-        <v>0</v>
-      </c>
-      <c r="E71" s="213">
+      <c r="C71" s="33">
+        <v>0</v>
+      </c>
+      <c r="D71" s="33">
+        <v>0</v>
+      </c>
+      <c r="E71" s="33">
         <v>3</v>
       </c>
-      <c r="F71" s="213">
-        <v>0</v>
-      </c>
-      <c r="G71" s="213">
-        <v>0</v>
-      </c>
-      <c r="H71" s="213">
+      <c r="F71" s="33">
+        <v>0</v>
+      </c>
+      <c r="G71" s="33">
+        <v>0</v>
+      </c>
+      <c r="H71" s="33">
         <v>15</v>
       </c>
-      <c r="I71" s="213">
-        <v>0</v>
-      </c>
-      <c r="J71" s="213">
-        <v>0</v>
-      </c>
-      <c r="K71" s="213">
+      <c r="I71" s="33">
+        <v>0</v>
+      </c>
+      <c r="J71" s="33">
+        <v>0</v>
+      </c>
+      <c r="K71" s="33">
         <v>11</v>
       </c>
-      <c r="L71" s="213">
+      <c r="L71" s="33">
         <v>17</v>
       </c>
-      <c r="M71" s="213">
+      <c r="M71" s="33">
         <v>8</v>
       </c>
-      <c r="N71" s="213">
+      <c r="N71" s="33">
         <v>7</v>
       </c>
-      <c r="O71" s="213">
+      <c r="O71" s="33">
         <v>7</v>
       </c>
-      <c r="P71" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="213">
+      <c r="P71" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="33">
         <v>0</v>
       </c>
       <c r="R71" s="193">
@@ -26349,49 +26346,49 @@
       <c r="B72" s="188" t="s">
         <v>577</v>
       </c>
-      <c r="C72" s="213">
-        <v>0</v>
-      </c>
-      <c r="D72" s="213">
-        <v>0</v>
-      </c>
-      <c r="E72" s="213">
+      <c r="C72" s="33">
+        <v>0</v>
+      </c>
+      <c r="D72" s="33">
+        <v>0</v>
+      </c>
+      <c r="E72" s="33">
         <v>17</v>
       </c>
-      <c r="F72" s="213">
-        <v>0</v>
-      </c>
-      <c r="G72" s="213">
-        <v>0</v>
-      </c>
-      <c r="H72" s="213">
+      <c r="F72" s="33">
+        <v>0</v>
+      </c>
+      <c r="G72" s="33">
+        <v>0</v>
+      </c>
+      <c r="H72" s="33">
         <v>36</v>
       </c>
-      <c r="I72" s="213">
-        <v>1</v>
-      </c>
-      <c r="J72" s="213">
-        <v>0</v>
-      </c>
-      <c r="K72" s="213">
+      <c r="I72" s="33">
+        <v>1</v>
+      </c>
+      <c r="J72" s="33">
+        <v>0</v>
+      </c>
+      <c r="K72" s="33">
         <v>18</v>
       </c>
-      <c r="L72" s="213">
+      <c r="L72" s="33">
         <v>35</v>
       </c>
-      <c r="M72" s="213">
+      <c r="M72" s="33">
         <v>19</v>
       </c>
-      <c r="N72" s="213">
+      <c r="N72" s="33">
         <v>19</v>
       </c>
-      <c r="O72" s="213">
+      <c r="O72" s="33">
         <v>25</v>
       </c>
-      <c r="P72" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="213">
+      <c r="P72" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="33">
         <v>6</v>
       </c>
       <c r="R72" s="193">
@@ -26402,49 +26399,49 @@
       <c r="B73" s="188" t="s">
         <v>578</v>
       </c>
-      <c r="C73" s="213">
+      <c r="C73" s="33">
         <v>17</v>
       </c>
-      <c r="D73" s="213">
+      <c r="D73" s="33">
         <v>38</v>
       </c>
-      <c r="E73" s="213">
+      <c r="E73" s="33">
         <v>27</v>
       </c>
-      <c r="F73" s="213">
+      <c r="F73" s="33">
         <v>22</v>
       </c>
-      <c r="G73" s="213">
+      <c r="G73" s="33">
         <v>29</v>
       </c>
-      <c r="H73" s="213">
-        <v>2</v>
-      </c>
-      <c r="I73" s="213">
+      <c r="H73" s="33">
+        <v>2</v>
+      </c>
+      <c r="I73" s="33">
         <v>10</v>
       </c>
-      <c r="J73" s="213">
+      <c r="J73" s="33">
         <v>22</v>
       </c>
-      <c r="K73" s="213">
-        <v>0</v>
-      </c>
-      <c r="L73" s="213">
-        <v>0</v>
-      </c>
-      <c r="M73" s="213">
-        <v>0</v>
-      </c>
-      <c r="N73" s="213">
-        <v>0</v>
-      </c>
-      <c r="O73" s="213">
-        <v>0</v>
-      </c>
-      <c r="P73" s="213">
+      <c r="K73" s="33">
+        <v>0</v>
+      </c>
+      <c r="L73" s="33">
+        <v>0</v>
+      </c>
+      <c r="M73" s="33">
+        <v>0</v>
+      </c>
+      <c r="N73" s="33">
+        <v>0</v>
+      </c>
+      <c r="O73" s="33">
+        <v>0</v>
+      </c>
+      <c r="P73" s="33">
         <v>35</v>
       </c>
-      <c r="Q73" s="213">
+      <c r="Q73" s="33">
         <v>0</v>
       </c>
       <c r="R73" s="193">
@@ -26494,7 +26491,7 @@
     </row>
     <row r="75" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="218" t="s">
+      <c r="B76" s="217" t="s">
         <v>633</v>
       </c>
       <c r="C76" s="85" t="s">
@@ -26527,7 +26524,7 @@
       <c r="P76" s="85"/>
       <c r="Q76" s="85"/>
       <c r="R76" s="86"/>
-      <c r="T76" s="219">
+      <c r="T76" s="218">
         <f>COUNTA(C76:R76)</f>
         <v>7</v>
       </c>
@@ -26544,7 +26541,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C16:R16">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26552,7 +26549,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26564,7 +26561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:R14">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26574,7 +26571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:R17">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26584,7 +26581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:R19">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26594,7 +26591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26604,7 +26601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:R22">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26614,7 +26611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:R29">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26624,7 +26621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:R30">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26634,7 +26631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:R31">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26644,7 +26641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:R35">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26654,7 +26651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:R36">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26664,7 +26661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:R37">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26674,7 +26671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:R59">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26684,7 +26681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:R48">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26694,7 +26691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C62">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26704,7 +26701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:D62">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26714,7 +26711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:E62">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26724,7 +26721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F62">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26734,7 +26731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G62">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26744,7 +26741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H62">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26754,7 +26751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I62">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26764,7 +26761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:J62">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26774,7 +26771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60:P62">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26784,7 +26781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E70">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26792,7 +26789,7 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26802,7 +26799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:R71">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26810,7 +26807,7 @@
         <color theme="4" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26820,7 +26817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:R72">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26828,7 +26825,7 @@
         <color theme="4" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26838,7 +26835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:R73">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26848,7 +26845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:R74">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26856,7 +26853,7 @@
         <color theme="4" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26866,7 +26863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:R11">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26876,7 +26873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H70">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26884,7 +26881,7 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26894,7 +26891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K70">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26902,7 +26899,7 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26912,7 +26909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L68:L70">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26920,7 +26917,7 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26930,7 +26927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68:M70">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26938,7 +26935,7 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26948,7 +26945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68:N70">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26956,7 +26953,7 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26966,7 +26963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68:O70">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -26974,22 +26971,342 @@
         <color theme="4" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:J12">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C37">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E37">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F37">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G37">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H37">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J37">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K37">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L37">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M37">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:N37">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:O37">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:P37">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:Q37">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35:R37">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C59">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D59">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E59">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F59">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G59">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H59">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I59">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J59">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:K59">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:L59">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M51:M59">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:J12">
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:N59">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:O59">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51:P59">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51:Q59">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51:R59">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -27001,11 +27318,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044B649F-358E-475E-8DD4-2D67CA3E56B8}">
   <dimension ref="B2:V76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27569,108 +27886,108 @@
       <c r="B12" s="188" t="s">
         <v>538</v>
       </c>
-      <c r="C12" s="213">
-        <v>2</v>
-      </c>
-      <c r="D12" s="213">
-        <v>2</v>
-      </c>
-      <c r="E12" s="213">
-        <v>1</v>
-      </c>
-      <c r="F12" s="213">
+      <c r="C12" s="33">
+        <v>2</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33">
         <v>6</v>
       </c>
-      <c r="G12" s="213">
+      <c r="G12" s="33">
         <v>3</v>
       </c>
-      <c r="H12" s="213">
+      <c r="H12" s="33">
         <v>8</v>
       </c>
-      <c r="I12" s="213">
+      <c r="I12" s="33">
         <v>5</v>
       </c>
-      <c r="J12" s="213">
+      <c r="J12" s="33">
         <v>6</v>
       </c>
-      <c r="K12" s="213">
+      <c r="K12" s="33">
         <v>8</v>
       </c>
-      <c r="L12" s="213">
+      <c r="L12" s="33">
         <v>8</v>
       </c>
-      <c r="M12" s="213">
+      <c r="M12" s="33">
         <v>3</v>
       </c>
-      <c r="N12" s="213">
+      <c r="N12" s="33">
         <v>8</v>
       </c>
-      <c r="O12" s="213">
+      <c r="O12" s="33">
         <v>10</v>
       </c>
-      <c r="P12" s="213">
+      <c r="P12" s="33">
         <v>11</v>
       </c>
-      <c r="Q12" s="213">
+      <c r="Q12" s="33">
         <v>9</v>
       </c>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="193"/>
     </row>
     <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="211" t="s">
         <v>539</v>
       </c>
-      <c r="C13" s="213">
+      <c r="C13" s="33">
         <v>177</v>
       </c>
-      <c r="D13" s="213">
+      <c r="D13" s="33">
         <v>205</v>
       </c>
-      <c r="E13" s="213">
+      <c r="E13" s="33">
         <v>142</v>
       </c>
-      <c r="F13" s="213">
+      <c r="F13" s="33">
         <v>39</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="33">
         <v>144</v>
       </c>
-      <c r="H13" s="213">
+      <c r="H13" s="33">
         <v>10</v>
       </c>
-      <c r="I13" s="213">
+      <c r="I13" s="33">
         <v>103</v>
       </c>
-      <c r="J13" s="213">
+      <c r="J13" s="33">
         <v>13</v>
       </c>
-      <c r="K13" s="213">
-        <v>2</v>
-      </c>
-      <c r="L13" s="213">
+      <c r="K13" s="33">
+        <v>2</v>
+      </c>
+      <c r="L13" s="33">
         <v>18</v>
       </c>
-      <c r="M13" s="213">
+      <c r="M13" s="33">
         <v>172</v>
       </c>
-      <c r="N13" s="213">
+      <c r="N13" s="33">
         <v>16</v>
       </c>
-      <c r="O13" s="213">
+      <c r="O13" s="33">
         <v>4</v>
       </c>
-      <c r="P13" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="213">
+      <c r="P13" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="33">
         <v>9</v>
       </c>
-      <c r="R13" s="213">
-        <v>0</v>
-      </c>
-      <c r="S13" s="213">
+      <c r="R13" s="33">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33">
         <v>0</v>
       </c>
       <c r="T13" s="193">
@@ -27740,55 +28057,55 @@
       <c r="B15" s="188" t="s">
         <v>541</v>
       </c>
-      <c r="C15" s="213">
+      <c r="C15" s="33">
         <v>73</v>
       </c>
-      <c r="D15" s="213">
+      <c r="D15" s="33">
         <v>139</v>
       </c>
-      <c r="E15" s="213">
+      <c r="E15" s="33">
         <v>110</v>
       </c>
-      <c r="F15" s="213">
-        <v>0</v>
-      </c>
-      <c r="G15" s="213">
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
         <v>12</v>
       </c>
-      <c r="H15" s="213">
-        <v>0</v>
-      </c>
-      <c r="I15" s="213">
-        <v>0</v>
-      </c>
-      <c r="J15" s="213">
-        <v>0</v>
-      </c>
-      <c r="K15" s="213">
-        <v>0</v>
-      </c>
-      <c r="L15" s="213">
-        <v>0</v>
-      </c>
-      <c r="M15" s="213">
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
         <v>3</v>
       </c>
-      <c r="N15" s="213">
-        <v>0</v>
-      </c>
-      <c r="O15" s="213">
-        <v>0</v>
-      </c>
-      <c r="P15" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="213">
-        <v>0</v>
-      </c>
-      <c r="R15" s="213">
-        <v>0</v>
-      </c>
-      <c r="S15" s="213">
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33">
         <v>0</v>
       </c>
       <c r="T15" s="193">
@@ -27799,55 +28116,55 @@
       <c r="B16" s="188" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="213">
-        <v>2</v>
-      </c>
-      <c r="D16" s="213">
-        <v>2</v>
-      </c>
-      <c r="E16" s="213">
+      <c r="C16" s="33">
+        <v>2</v>
+      </c>
+      <c r="D16" s="33">
+        <v>2</v>
+      </c>
+      <c r="E16" s="33">
         <v>7</v>
       </c>
-      <c r="F16" s="213">
-        <v>0</v>
-      </c>
-      <c r="G16" s="213">
-        <v>0</v>
-      </c>
-      <c r="H16" s="213">
-        <v>0</v>
-      </c>
-      <c r="I16" s="213">
-        <v>0</v>
-      </c>
-      <c r="J16" s="213">
-        <v>0</v>
-      </c>
-      <c r="K16" s="213">
-        <v>0</v>
-      </c>
-      <c r="L16" s="213">
-        <v>0</v>
-      </c>
-      <c r="M16" s="213">
-        <v>0</v>
-      </c>
-      <c r="N16" s="213">
-        <v>0</v>
-      </c>
-      <c r="O16" s="213">
-        <v>0</v>
-      </c>
-      <c r="P16" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="213">
-        <v>0</v>
-      </c>
-      <c r="R16" s="213">
-        <v>0</v>
-      </c>
-      <c r="S16" s="213">
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <v>0</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0</v>
+      </c>
+      <c r="M16" s="33">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>0</v>
+      </c>
+      <c r="R16" s="33">
+        <v>0</v>
+      </c>
+      <c r="S16" s="33">
         <v>0</v>
       </c>
       <c r="T16" s="193">
@@ -27858,55 +28175,55 @@
       <c r="B17" s="188" t="s">
         <v>543</v>
       </c>
-      <c r="C17" s="213">
+      <c r="C17" s="33">
         <v>118</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D17" s="33">
         <v>91</v>
       </c>
-      <c r="E17" s="213">
+      <c r="E17" s="33">
         <v>42</v>
       </c>
-      <c r="F17" s="213">
+      <c r="F17" s="33">
         <v>55</v>
       </c>
-      <c r="G17" s="213">
+      <c r="G17" s="33">
         <v>245</v>
       </c>
-      <c r="H17" s="213">
+      <c r="H17" s="33">
         <v>5</v>
       </c>
-      <c r="I17" s="213">
+      <c r="I17" s="33">
         <v>47</v>
       </c>
-      <c r="J17" s="213">
-        <v>2</v>
-      </c>
-      <c r="K17" s="213">
-        <v>0</v>
-      </c>
-      <c r="L17" s="213">
+      <c r="J17" s="33">
+        <v>2</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
         <v>17</v>
       </c>
-      <c r="M17" s="213">
+      <c r="M17" s="33">
         <v>180</v>
       </c>
-      <c r="N17" s="213">
+      <c r="N17" s="33">
         <v>5</v>
       </c>
-      <c r="O17" s="213">
-        <v>0</v>
-      </c>
-      <c r="P17" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="213">
-        <v>0</v>
-      </c>
-      <c r="R17" s="213">
-        <v>0</v>
-      </c>
-      <c r="S17" s="213">
+      <c r="O17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>0</v>
+      </c>
+      <c r="R17" s="33">
+        <v>0</v>
+      </c>
+      <c r="S17" s="33">
         <v>0</v>
       </c>
       <c r="T17" s="193">
@@ -27917,55 +28234,55 @@
       <c r="B18" s="188" t="s">
         <v>544</v>
       </c>
-      <c r="C18" s="213">
+      <c r="C18" s="33">
         <v>87</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D18" s="33">
         <v>69</v>
       </c>
-      <c r="E18" s="213">
+      <c r="E18" s="33">
         <v>32</v>
       </c>
-      <c r="F18" s="213">
+      <c r="F18" s="33">
         <v>29</v>
       </c>
-      <c r="G18" s="213">
+      <c r="G18" s="33">
         <v>130</v>
       </c>
-      <c r="H18" s="213">
+      <c r="H18" s="33">
         <v>10</v>
       </c>
-      <c r="I18" s="213">
+      <c r="I18" s="33">
         <v>44</v>
       </c>
-      <c r="J18" s="213">
+      <c r="J18" s="33">
         <v>4</v>
       </c>
-      <c r="K18" s="213">
-        <v>0</v>
-      </c>
-      <c r="L18" s="213">
+      <c r="K18" s="33">
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
         <v>8</v>
       </c>
-      <c r="M18" s="213">
+      <c r="M18" s="33">
         <v>137</v>
       </c>
-      <c r="N18" s="213">
-        <v>2</v>
-      </c>
-      <c r="O18" s="213">
-        <v>0</v>
-      </c>
-      <c r="P18" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="213">
-        <v>0</v>
-      </c>
-      <c r="R18" s="213">
-        <v>0</v>
-      </c>
-      <c r="S18" s="213">
+      <c r="N18" s="33">
+        <v>2</v>
+      </c>
+      <c r="O18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>0</v>
+      </c>
+      <c r="R18" s="33">
+        <v>0</v>
+      </c>
+      <c r="S18" s="33">
         <v>0</v>
       </c>
       <c r="T18" s="193">
@@ -27976,55 +28293,55 @@
       <c r="B19" s="188" t="s">
         <v>545</v>
       </c>
-      <c r="C19" s="213">
+      <c r="C19" s="33">
         <v>4</v>
       </c>
-      <c r="D19" s="213">
+      <c r="D19" s="33">
         <v>6</v>
       </c>
-      <c r="E19" s="213">
-        <v>1</v>
-      </c>
-      <c r="F19" s="213">
-        <v>1</v>
-      </c>
-      <c r="G19" s="213">
+      <c r="E19" s="33">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33">
         <v>7</v>
       </c>
-      <c r="H19" s="213">
-        <v>1</v>
-      </c>
-      <c r="I19" s="213">
-        <v>2</v>
-      </c>
-      <c r="J19" s="213">
-        <v>1</v>
-      </c>
-      <c r="K19" s="213">
-        <v>0</v>
-      </c>
-      <c r="L19" s="213">
-        <v>0</v>
-      </c>
-      <c r="M19" s="213">
+      <c r="H19" s="33">
+        <v>1</v>
+      </c>
+      <c r="I19" s="33">
+        <v>2</v>
+      </c>
+      <c r="J19" s="33">
+        <v>1</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
         <v>4</v>
       </c>
-      <c r="N19" s="213">
-        <v>0</v>
-      </c>
-      <c r="O19" s="213">
-        <v>0</v>
-      </c>
-      <c r="P19" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="213">
-        <v>0</v>
-      </c>
-      <c r="R19" s="213">
-        <v>0</v>
-      </c>
-      <c r="S19" s="213">
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
+        <v>0</v>
+      </c>
+      <c r="S19" s="33">
         <v>0</v>
       </c>
       <c r="T19" s="193">
@@ -28035,55 +28352,55 @@
       <c r="B20" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="C20" s="213">
+      <c r="C20" s="33">
         <v>44</v>
       </c>
-      <c r="D20" s="213">
-        <v>0</v>
-      </c>
-      <c r="E20" s="213">
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33">
         <v>4</v>
       </c>
-      <c r="F20" s="213">
+      <c r="F20" s="33">
         <v>12</v>
       </c>
-      <c r="G20" s="213">
+      <c r="G20" s="33">
         <v>12</v>
       </c>
-      <c r="H20" s="213">
-        <v>0</v>
-      </c>
-      <c r="I20" s="213">
+      <c r="H20" s="33">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33">
         <v>130</v>
       </c>
-      <c r="J20" s="213">
+      <c r="J20" s="33">
         <v>15</v>
       </c>
-      <c r="K20" s="213">
-        <v>1</v>
-      </c>
-      <c r="L20" s="213">
+      <c r="K20" s="33">
+        <v>1</v>
+      </c>
+      <c r="L20" s="33">
         <v>6</v>
       </c>
-      <c r="M20" s="213">
+      <c r="M20" s="33">
         <v>87</v>
       </c>
-      <c r="N20" s="213">
+      <c r="N20" s="33">
         <v>18</v>
       </c>
-      <c r="O20" s="213">
+      <c r="O20" s="33">
         <v>3</v>
       </c>
-      <c r="P20" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="213">
+      <c r="P20" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="33">
         <v>13</v>
       </c>
-      <c r="R20" s="213">
-        <v>0</v>
-      </c>
-      <c r="S20" s="213">
+      <c r="R20" s="33">
+        <v>0</v>
+      </c>
+      <c r="S20" s="33">
         <v>0</v>
       </c>
       <c r="T20" s="193">
@@ -28094,55 +28411,55 @@
       <c r="B21" s="188" t="s">
         <v>547</v>
       </c>
-      <c r="C21" s="213">
+      <c r="C21" s="33">
         <v>20</v>
       </c>
-      <c r="D21" s="213">
-        <v>1</v>
-      </c>
-      <c r="E21" s="213">
+      <c r="D21" s="33">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
         <v>5</v>
       </c>
-      <c r="F21" s="213">
+      <c r="F21" s="33">
         <v>11</v>
       </c>
-      <c r="G21" s="213">
+      <c r="G21" s="33">
         <v>6</v>
       </c>
-      <c r="H21" s="213">
-        <v>0</v>
-      </c>
-      <c r="I21" s="213">
+      <c r="H21" s="33">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
         <v>62</v>
       </c>
-      <c r="J21" s="213">
+      <c r="J21" s="33">
         <v>9</v>
       </c>
-      <c r="K21" s="213">
-        <v>2</v>
-      </c>
-      <c r="L21" s="213">
+      <c r="K21" s="33">
+        <v>2</v>
+      </c>
+      <c r="L21" s="33">
         <v>10</v>
       </c>
-      <c r="M21" s="213">
+      <c r="M21" s="33">
         <v>47</v>
       </c>
-      <c r="N21" s="213">
+      <c r="N21" s="33">
         <v>16</v>
       </c>
-      <c r="O21" s="213">
+      <c r="O21" s="33">
         <v>4</v>
       </c>
-      <c r="P21" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="213">
+      <c r="P21" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="33">
         <v>9</v>
       </c>
-      <c r="R21" s="213">
-        <v>0</v>
-      </c>
-      <c r="S21" s="213">
+      <c r="R21" s="33">
+        <v>0</v>
+      </c>
+      <c r="S21" s="33">
         <v>0</v>
       </c>
       <c r="T21" s="193">
@@ -28212,55 +28529,55 @@
       <c r="B23" s="212" t="s">
         <v>549</v>
       </c>
-      <c r="C23" s="213">
+      <c r="C23" s="33">
         <v>16</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D23" s="33">
         <v>20</v>
       </c>
-      <c r="E23" s="213">
+      <c r="E23" s="33">
         <v>8</v>
       </c>
-      <c r="F23" s="213">
+      <c r="F23" s="33">
         <v>4</v>
       </c>
-      <c r="G23" s="213">
+      <c r="G23" s="33">
         <v>16</v>
       </c>
-      <c r="H23" s="213">
-        <v>0</v>
-      </c>
-      <c r="I23" s="213">
+      <c r="H23" s="33">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33">
         <v>8</v>
       </c>
-      <c r="J23" s="213">
-        <v>0</v>
-      </c>
-      <c r="K23" s="213">
-        <v>0</v>
-      </c>
-      <c r="L23" s="213">
-        <v>0</v>
-      </c>
-      <c r="M23" s="213">
+      <c r="J23" s="33">
+        <v>0</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33">
         <v>16</v>
       </c>
-      <c r="N23" s="213">
-        <v>0</v>
-      </c>
-      <c r="O23" s="213">
-        <v>0</v>
-      </c>
-      <c r="P23" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="213">
-        <v>0</v>
-      </c>
-      <c r="R23" s="213">
-        <v>0</v>
-      </c>
-      <c r="S23" s="213">
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>0</v>
+      </c>
+      <c r="R23" s="33">
+        <v>0</v>
+      </c>
+      <c r="S23" s="33">
         <v>0</v>
       </c>
       <c r="T23" s="193">
@@ -28271,55 +28588,55 @@
       <c r="B24" s="188" t="s">
         <v>550</v>
       </c>
-      <c r="C24" s="213">
+      <c r="C24" s="33">
         <v>16</v>
       </c>
-      <c r="D24" s="213">
+      <c r="D24" s="33">
         <v>16</v>
       </c>
-      <c r="E24" s="213">
+      <c r="E24" s="33">
         <v>8</v>
       </c>
-      <c r="F24" s="213">
-        <v>0</v>
-      </c>
-      <c r="G24" s="213">
+      <c r="F24" s="33">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
         <v>24</v>
       </c>
-      <c r="H24" s="213">
-        <v>0</v>
-      </c>
-      <c r="I24" s="213">
-        <v>0</v>
-      </c>
-      <c r="J24" s="213">
-        <v>0</v>
-      </c>
-      <c r="K24" s="213">
-        <v>0</v>
-      </c>
-      <c r="L24" s="213">
-        <v>0</v>
-      </c>
-      <c r="M24" s="213">
+      <c r="H24" s="33">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33">
+        <v>0</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33">
         <v>8</v>
       </c>
-      <c r="N24" s="213">
-        <v>0</v>
-      </c>
-      <c r="O24" s="213">
-        <v>0</v>
-      </c>
-      <c r="P24" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="213">
-        <v>0</v>
-      </c>
-      <c r="R24" s="213">
-        <v>0</v>
-      </c>
-      <c r="S24" s="213">
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="O24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>0</v>
+      </c>
+      <c r="R24" s="33">
+        <v>0</v>
+      </c>
+      <c r="S24" s="33">
         <v>0</v>
       </c>
       <c r="T24" s="193">
@@ -28330,55 +28647,55 @@
       <c r="B25" s="188" t="s">
         <v>551</v>
       </c>
-      <c r="C25" s="213">
-        <v>0</v>
-      </c>
-      <c r="D25" s="213">
-        <v>0</v>
-      </c>
-      <c r="E25" s="213">
-        <v>0</v>
-      </c>
-      <c r="F25" s="213">
-        <v>0</v>
-      </c>
-      <c r="G25" s="213">
-        <v>0</v>
-      </c>
-      <c r="H25" s="213">
-        <v>0</v>
-      </c>
-      <c r="I25" s="213">
-        <v>0</v>
-      </c>
-      <c r="J25" s="213">
-        <v>0</v>
-      </c>
-      <c r="K25" s="213">
-        <v>0</v>
-      </c>
-      <c r="L25" s="213">
-        <v>0</v>
-      </c>
-      <c r="M25" s="213">
-        <v>0</v>
-      </c>
-      <c r="N25" s="213">
-        <v>0</v>
-      </c>
-      <c r="O25" s="213">
-        <v>0</v>
-      </c>
-      <c r="P25" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="213">
-        <v>0</v>
-      </c>
-      <c r="R25" s="213">
-        <v>0</v>
-      </c>
-      <c r="S25" s="213">
+      <c r="C25" s="33">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="E25" s="33">
+        <v>0</v>
+      </c>
+      <c r="F25" s="33">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>0</v>
+      </c>
+      <c r="R25" s="33">
+        <v>0</v>
+      </c>
+      <c r="S25" s="33">
         <v>0</v>
       </c>
       <c r="T25" s="193">
@@ -28389,55 +28706,55 @@
       <c r="B26" s="188" t="s">
         <v>552</v>
       </c>
-      <c r="C26" s="213">
-        <v>0</v>
-      </c>
-      <c r="D26" s="213">
-        <v>0</v>
-      </c>
-      <c r="E26" s="213">
+      <c r="C26" s="33">
+        <v>0</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0</v>
+      </c>
+      <c r="E26" s="33">
         <v>-2</v>
       </c>
-      <c r="F26" s="213">
+      <c r="F26" s="33">
         <v>-2</v>
       </c>
-      <c r="G26" s="213">
+      <c r="G26" s="33">
         <v>-2</v>
       </c>
-      <c r="H26" s="213">
-        <v>0</v>
-      </c>
-      <c r="I26" s="213">
+      <c r="H26" s="33">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33">
         <v>-2</v>
       </c>
-      <c r="J26" s="213">
-        <v>0</v>
-      </c>
-      <c r="K26" s="213">
-        <v>0</v>
-      </c>
-      <c r="L26" s="213">
-        <v>0</v>
-      </c>
-      <c r="M26" s="213">
-        <v>0</v>
-      </c>
-      <c r="N26" s="213">
-        <v>0</v>
-      </c>
-      <c r="O26" s="213">
-        <v>0</v>
-      </c>
-      <c r="P26" s="213">
+      <c r="J26" s="33">
+        <v>0</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
         <v>-2</v>
       </c>
-      <c r="Q26" s="213">
-        <v>0</v>
-      </c>
-      <c r="R26" s="213">
-        <v>0</v>
-      </c>
-      <c r="S26" s="213">
+      <c r="Q26" s="33">
+        <v>0</v>
+      </c>
+      <c r="R26" s="33">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33">
         <v>0</v>
       </c>
       <c r="T26" s="193">
@@ -28448,55 +28765,55 @@
       <c r="B27" s="188" t="s">
         <v>553</v>
       </c>
-      <c r="C27" s="213">
+      <c r="C27" s="33">
         <v>150</v>
       </c>
-      <c r="D27" s="213">
-        <v>0</v>
-      </c>
-      <c r="E27" s="213">
-        <v>0</v>
-      </c>
-      <c r="F27" s="213">
-        <v>0</v>
-      </c>
-      <c r="G27" s="213">
-        <v>0</v>
-      </c>
-      <c r="H27" s="213">
-        <v>0</v>
-      </c>
-      <c r="I27" s="213">
-        <v>0</v>
-      </c>
-      <c r="J27" s="213">
+      <c r="D27" s="33">
+        <v>0</v>
+      </c>
+      <c r="E27" s="33">
+        <v>0</v>
+      </c>
+      <c r="F27" s="33">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33">
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
         <v>75</v>
       </c>
-      <c r="K27" s="213">
+      <c r="K27" s="33">
         <v>96</v>
       </c>
-      <c r="L27" s="213">
+      <c r="L27" s="33">
         <v>210</v>
       </c>
-      <c r="M27" s="213">
+      <c r="M27" s="33">
         <v>6</v>
       </c>
-      <c r="N27" s="213">
+      <c r="N27" s="33">
         <v>90</v>
       </c>
-      <c r="O27" s="213">
+      <c r="O27" s="33">
         <v>120</v>
       </c>
-      <c r="P27" s="213">
+      <c r="P27" s="33">
         <v>118</v>
       </c>
-      <c r="Q27" s="213">
+      <c r="Q27" s="33">
         <v>59</v>
       </c>
-      <c r="R27" s="213">
+      <c r="R27" s="33">
         <v>78</v>
       </c>
-      <c r="S27" s="213">
+      <c r="S27" s="33">
         <v>18</v>
       </c>
       <c r="T27" s="193">
@@ -28507,55 +28824,55 @@
       <c r="B28" s="211" t="s">
         <v>554</v>
       </c>
-      <c r="C28" s="213">
+      <c r="C28" s="33">
         <v>239</v>
       </c>
-      <c r="D28" s="213">
-        <v>0</v>
-      </c>
-      <c r="E28" s="213">
-        <v>0</v>
-      </c>
-      <c r="F28" s="213">
-        <v>0</v>
-      </c>
-      <c r="G28" s="213">
-        <v>0</v>
-      </c>
-      <c r="H28" s="213">
-        <v>0</v>
-      </c>
-      <c r="I28" s="213">
-        <v>0</v>
-      </c>
-      <c r="J28" s="213">
+      <c r="D28" s="33">
+        <v>0</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0</v>
+      </c>
+      <c r="F28" s="33">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33">
+        <v>0</v>
+      </c>
+      <c r="J28" s="33">
         <v>148</v>
       </c>
-      <c r="K28" s="213">
+      <c r="K28" s="33">
         <v>154</v>
       </c>
-      <c r="L28" s="213">
+      <c r="L28" s="33">
         <v>253</v>
       </c>
-      <c r="M28" s="213">
+      <c r="M28" s="33">
         <v>6</v>
       </c>
-      <c r="N28" s="213">
+      <c r="N28" s="33">
         <v>141</v>
       </c>
-      <c r="O28" s="213">
+      <c r="O28" s="33">
         <v>190</v>
       </c>
-      <c r="P28" s="213">
+      <c r="P28" s="33">
         <v>198</v>
       </c>
-      <c r="Q28" s="213">
+      <c r="Q28" s="33">
         <v>83</v>
       </c>
-      <c r="R28" s="213">
+      <c r="R28" s="33">
         <v>98</v>
       </c>
-      <c r="S28" s="213">
+      <c r="S28" s="33">
         <v>36</v>
       </c>
       <c r="T28" s="193">
@@ -28625,55 +28942,55 @@
       <c r="B30" s="188" t="s">
         <v>556</v>
       </c>
-      <c r="C30" s="213">
+      <c r="C30" s="33">
         <v>12</v>
       </c>
-      <c r="D30" s="213">
-        <v>0</v>
-      </c>
-      <c r="E30" s="213">
-        <v>0</v>
-      </c>
-      <c r="F30" s="213">
-        <v>0</v>
-      </c>
-      <c r="G30" s="213">
-        <v>0</v>
-      </c>
-      <c r="H30" s="213">
-        <v>0</v>
-      </c>
-      <c r="I30" s="213">
-        <v>0</v>
-      </c>
-      <c r="J30" s="213">
+      <c r="D30" s="33">
+        <v>0</v>
+      </c>
+      <c r="E30" s="33">
+        <v>0</v>
+      </c>
+      <c r="F30" s="33">
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0</v>
+      </c>
+      <c r="I30" s="33">
+        <v>0</v>
+      </c>
+      <c r="J30" s="33">
         <v>3</v>
       </c>
-      <c r="K30" s="213">
+      <c r="K30" s="33">
         <v>6</v>
       </c>
-      <c r="L30" s="213">
+      <c r="L30" s="33">
         <v>29</v>
       </c>
-      <c r="M30" s="213">
-        <v>1</v>
-      </c>
-      <c r="N30" s="213">
+      <c r="M30" s="33">
+        <v>1</v>
+      </c>
+      <c r="N30" s="33">
         <v>13</v>
       </c>
-      <c r="O30" s="213">
-        <v>2</v>
-      </c>
-      <c r="P30" s="213">
+      <c r="O30" s="33">
+        <v>2</v>
+      </c>
+      <c r="P30" s="33">
         <v>8</v>
       </c>
-      <c r="Q30" s="213">
-        <v>2</v>
-      </c>
-      <c r="R30" s="213">
+      <c r="Q30" s="33">
+        <v>2</v>
+      </c>
+      <c r="R30" s="33">
         <v>12</v>
       </c>
-      <c r="S30" s="213">
+      <c r="S30" s="33">
         <v>1</v>
       </c>
       <c r="T30" s="193">
@@ -28743,55 +29060,55 @@
       <c r="B32" s="212" t="s">
         <v>558</v>
       </c>
-      <c r="C32" s="213">
+      <c r="C32" s="33">
         <v>84</v>
       </c>
-      <c r="D32" s="213">
-        <v>0</v>
-      </c>
-      <c r="E32" s="213">
-        <v>0</v>
-      </c>
-      <c r="F32" s="213">
-        <v>0</v>
-      </c>
-      <c r="G32" s="213">
-        <v>0</v>
-      </c>
-      <c r="H32" s="213">
-        <v>0</v>
-      </c>
-      <c r="I32" s="213">
-        <v>0</v>
-      </c>
-      <c r="J32" s="213">
+      <c r="D32" s="33">
+        <v>0</v>
+      </c>
+      <c r="E32" s="33">
+        <v>0</v>
+      </c>
+      <c r="F32" s="33">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+      <c r="H32" s="33">
+        <v>0</v>
+      </c>
+      <c r="I32" s="33">
+        <v>0</v>
+      </c>
+      <c r="J32" s="33">
         <v>63</v>
       </c>
-      <c r="K32" s="213">
+      <c r="K32" s="33">
         <v>51</v>
       </c>
-      <c r="L32" s="213">
+      <c r="L32" s="33">
         <v>49</v>
       </c>
-      <c r="M32" s="213">
-        <v>0</v>
-      </c>
-      <c r="N32" s="213">
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
         <v>14</v>
       </c>
-      <c r="O32" s="213">
+      <c r="O32" s="33">
         <v>94</v>
       </c>
-      <c r="P32" s="213">
+      <c r="P32" s="33">
         <v>41</v>
       </c>
-      <c r="Q32" s="213">
+      <c r="Q32" s="33">
         <v>40</v>
       </c>
-      <c r="R32" s="213">
-        <v>0</v>
-      </c>
-      <c r="S32" s="213">
+      <c r="R32" s="33">
+        <v>0</v>
+      </c>
+      <c r="S32" s="33">
         <v>0</v>
       </c>
       <c r="T32" s="193">
@@ -28802,55 +29119,55 @@
       <c r="B33" s="188" t="s">
         <v>559</v>
       </c>
-      <c r="C33" s="213">
+      <c r="C33" s="33">
         <v>106</v>
       </c>
-      <c r="D33" s="213">
-        <v>0</v>
-      </c>
-      <c r="E33" s="213">
-        <v>0</v>
-      </c>
-      <c r="F33" s="213">
-        <v>0</v>
-      </c>
-      <c r="G33" s="213">
-        <v>0</v>
-      </c>
-      <c r="H33" s="213">
-        <v>0</v>
-      </c>
-      <c r="I33" s="213">
-        <v>0</v>
-      </c>
-      <c r="J33" s="213">
+      <c r="D33" s="33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="33">
         <v>29</v>
       </c>
-      <c r="K33" s="213">
+      <c r="K33" s="33">
         <v>46</v>
       </c>
-      <c r="L33" s="213">
+      <c r="L33" s="33">
         <v>204</v>
       </c>
-      <c r="M33" s="213">
+      <c r="M33" s="33">
         <v>6</v>
       </c>
-      <c r="N33" s="213">
+      <c r="N33" s="33">
         <v>127</v>
       </c>
-      <c r="O33" s="213">
+      <c r="O33" s="33">
         <v>22</v>
       </c>
-      <c r="P33" s="213">
+      <c r="P33" s="33">
         <v>73</v>
       </c>
-      <c r="Q33" s="213">
+      <c r="Q33" s="33">
         <v>40</v>
       </c>
-      <c r="R33" s="213">
+      <c r="R33" s="33">
         <v>93</v>
       </c>
-      <c r="S33" s="213">
+      <c r="S33" s="33">
         <v>15</v>
       </c>
       <c r="T33" s="193">
@@ -28861,55 +29178,55 @@
       <c r="B34" s="211" t="s">
         <v>560</v>
       </c>
-      <c r="C34" s="213">
+      <c r="C34" s="33">
         <v>49</v>
       </c>
-      <c r="D34" s="213">
-        <v>0</v>
-      </c>
-      <c r="E34" s="213">
-        <v>0</v>
-      </c>
-      <c r="F34" s="213">
-        <v>0</v>
-      </c>
-      <c r="G34" s="213">
-        <v>0</v>
-      </c>
-      <c r="H34" s="213">
-        <v>0</v>
-      </c>
-      <c r="I34" s="213">
-        <v>0</v>
-      </c>
-      <c r="J34" s="213">
+      <c r="D34" s="33">
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
+      <c r="F34" s="33">
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+      <c r="H34" s="33">
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="33">
         <v>56</v>
       </c>
-      <c r="K34" s="213">
+      <c r="K34" s="33">
         <v>57</v>
       </c>
-      <c r="L34" s="213">
-        <v>0</v>
-      </c>
-      <c r="M34" s="213">
-        <v>0</v>
-      </c>
-      <c r="N34" s="213">
-        <v>0</v>
-      </c>
-      <c r="O34" s="213">
+      <c r="L34" s="33">
+        <v>0</v>
+      </c>
+      <c r="M34" s="33">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="O34" s="33">
         <v>74</v>
       </c>
-      <c r="P34" s="213">
+      <c r="P34" s="33">
         <v>84</v>
       </c>
-      <c r="Q34" s="213">
+      <c r="Q34" s="33">
         <v>3</v>
       </c>
-      <c r="R34" s="213">
+      <c r="R34" s="33">
         <v>5</v>
       </c>
-      <c r="S34" s="213">
+      <c r="S34" s="33">
         <v>21</v>
       </c>
       <c r="T34" s="193">
@@ -28979,55 +29296,55 @@
       <c r="B36" s="188" t="s">
         <v>562</v>
       </c>
-      <c r="C36" s="213">
-        <v>2</v>
-      </c>
-      <c r="D36" s="213">
-        <v>0</v>
-      </c>
-      <c r="E36" s="213">
-        <v>0</v>
-      </c>
-      <c r="F36" s="213">
-        <v>0</v>
-      </c>
-      <c r="G36" s="213">
-        <v>0</v>
-      </c>
-      <c r="H36" s="213">
-        <v>0</v>
-      </c>
-      <c r="I36" s="213">
-        <v>0</v>
-      </c>
-      <c r="J36" s="213">
-        <v>2</v>
-      </c>
-      <c r="K36" s="213">
-        <v>1</v>
-      </c>
-      <c r="L36" s="213">
+      <c r="C36" s="33">
+        <v>2</v>
+      </c>
+      <c r="D36" s="33">
+        <v>0</v>
+      </c>
+      <c r="E36" s="33">
+        <v>0</v>
+      </c>
+      <c r="F36" s="33">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33">
+        <v>0</v>
+      </c>
+      <c r="H36" s="33">
+        <v>0</v>
+      </c>
+      <c r="I36" s="33">
+        <v>0</v>
+      </c>
+      <c r="J36" s="33">
+        <v>2</v>
+      </c>
+      <c r="K36" s="33">
+        <v>1</v>
+      </c>
+      <c r="L36" s="33">
         <v>14</v>
       </c>
-      <c r="M36" s="213">
-        <v>0</v>
-      </c>
-      <c r="N36" s="213">
-        <v>2</v>
-      </c>
-      <c r="O36" s="213">
-        <v>0</v>
-      </c>
-      <c r="P36" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="213">
-        <v>1</v>
-      </c>
-      <c r="R36" s="213">
-        <v>2</v>
-      </c>
-      <c r="S36" s="213">
+      <c r="M36" s="33">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>2</v>
+      </c>
+      <c r="O36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>1</v>
+      </c>
+      <c r="R36" s="33">
+        <v>2</v>
+      </c>
+      <c r="S36" s="33">
         <v>0</v>
       </c>
       <c r="T36" s="193">
@@ -29097,106 +29414,106 @@
       <c r="B38" s="212" t="s">
         <v>564</v>
       </c>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="213" t="s">
+      <c r="D38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="E38" s="213" t="s">
+      <c r="E38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="F38" s="213" t="s">
+      <c r="F38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="G38" s="213" t="s">
+      <c r="G38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H38" s="213" t="s">
+      <c r="H38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="I38" s="213" t="s">
+      <c r="I38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="J38" s="213" t="s">
+      <c r="J38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="K38" s="213" t="s">
+      <c r="K38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="L38" s="213" t="s">
+      <c r="L38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="M38" s="213" t="s">
+      <c r="M38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="N38" s="213" t="s">
+      <c r="N38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="O38" s="213" t="s">
+      <c r="O38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="P38" s="213" t="s">
+      <c r="P38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="Q38" s="213" t="s">
+      <c r="Q38" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="R38" s="213"/>
-      <c r="S38" s="213"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
       <c r="T38" s="193"/>
     </row>
     <row r="39" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="211" t="s">
         <v>565</v>
       </c>
-      <c r="C39" s="213" t="s">
+      <c r="C39" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="D39" s="213" t="s">
+      <c r="D39" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="E39" s="213" t="s">
+      <c r="E39" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F39" s="213" t="s">
+      <c r="F39" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="G39" s="213" t="s">
+      <c r="G39" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="H39" s="213" t="s">
+      <c r="H39" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="I39" s="213" t="s">
+      <c r="I39" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="J39" s="213" t="s">
+      <c r="J39" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="K39" s="213" t="s">
+      <c r="K39" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="L39" s="213" t="s">
+      <c r="L39" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="M39" s="213" t="s">
+      <c r="M39" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="N39" s="213" t="s">
+      <c r="N39" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="O39" s="213" t="s">
+      <c r="O39" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="P39" s="213" t="s">
+      <c r="P39" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="Q39" s="213" t="s">
+      <c r="Q39" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="R39" s="213"/>
-      <c r="S39" s="213"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
       <c r="T39" s="193"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
@@ -29244,269 +29561,269 @@
       <c r="B41" s="188" t="s">
         <v>469</v>
       </c>
-      <c r="C41" s="213">
+      <c r="C41" s="33">
         <v>12</v>
       </c>
-      <c r="D41" s="213">
+      <c r="D41" s="33">
         <v>32</v>
       </c>
-      <c r="E41" s="213">
+      <c r="E41" s="33">
         <v>21</v>
       </c>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213">
-        <v>1</v>
-      </c>
-      <c r="H41" s="213">
+      <c r="F41" s="33"/>
+      <c r="G41" s="33">
+        <v>1</v>
+      </c>
+      <c r="H41" s="33">
         <v>5</v>
       </c>
-      <c r="I41" s="213">
+      <c r="I41" s="33">
         <v>31</v>
       </c>
-      <c r="J41" s="213">
-        <v>2</v>
-      </c>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213">
+      <c r="J41" s="33">
+        <v>2</v>
+      </c>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33">
         <v>5</v>
       </c>
-      <c r="M41" s="213">
+      <c r="M41" s="33">
         <v>22</v>
       </c>
-      <c r="N41" s="213">
+      <c r="N41" s="33">
         <v>18</v>
       </c>
-      <c r="O41" s="213"/>
-      <c r="P41" s="213"/>
-      <c r="Q41" s="213"/>
-      <c r="R41" s="213"/>
-      <c r="S41" s="213"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
       <c r="T41" s="193"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="188" t="s">
         <v>292</v>
       </c>
-      <c r="C42" s="213">
+      <c r="C42" s="33">
         <v>17</v>
       </c>
-      <c r="D42" s="213">
+      <c r="D42" s="33">
         <v>31</v>
       </c>
-      <c r="E42" s="213">
+      <c r="E42" s="33">
         <v>65</v>
       </c>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213">
-        <v>0</v>
-      </c>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213">
+      <c r="F42" s="33"/>
+      <c r="G42" s="33">
+        <v>0</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33">
         <v>13</v>
       </c>
-      <c r="J42" s="213"/>
-      <c r="K42" s="213"/>
-      <c r="L42" s="213"/>
-      <c r="M42" s="213">
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33">
         <v>41</v>
       </c>
-      <c r="N42" s="213"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
-      <c r="Q42" s="213"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
       <c r="T42" s="193"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="213">
-        <v>1</v>
-      </c>
-      <c r="D43" s="213">
+      <c r="C43" s="33">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33">
         <v>58</v>
       </c>
-      <c r="E43" s="213">
+      <c r="E43" s="33">
         <v>20</v>
       </c>
-      <c r="F43" s="213">
+      <c r="F43" s="33">
         <v>6</v>
       </c>
-      <c r="G43" s="213">
+      <c r="G43" s="33">
         <v>43</v>
       </c>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213">
+      <c r="H43" s="33"/>
+      <c r="I43" s="33">
         <v>24</v>
       </c>
-      <c r="J43" s="213"/>
-      <c r="K43" s="213"/>
-      <c r="L43" s="213"/>
-      <c r="M43" s="213">
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33">
         <v>30</v>
       </c>
-      <c r="N43" s="213"/>
-      <c r="O43" s="213"/>
-      <c r="P43" s="213"/>
-      <c r="Q43" s="213"/>
-      <c r="R43" s="213"/>
-      <c r="S43" s="213"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
       <c r="T43" s="193"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="213">
+      <c r="C44" s="33">
         <v>64</v>
       </c>
-      <c r="D44" s="213">
+      <c r="D44" s="33">
         <v>38</v>
       </c>
-      <c r="E44" s="213">
+      <c r="E44" s="33">
         <v>28</v>
       </c>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33">
         <v>7</v>
       </c>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213">
+      <c r="H44" s="33"/>
+      <c r="I44" s="33">
         <v>16</v>
       </c>
-      <c r="J44" s="213"/>
-      <c r="K44" s="213"/>
-      <c r="L44" s="213"/>
-      <c r="M44" s="213">
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33">
         <v>37</v>
       </c>
-      <c r="N44" s="213"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213"/>
-      <c r="Q44" s="213"/>
-      <c r="R44" s="213"/>
-      <c r="S44" s="213"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
       <c r="T44" s="193"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="188" t="s">
         <v>440</v>
       </c>
-      <c r="C45" s="213">
+      <c r="C45" s="33">
         <v>67</v>
       </c>
-      <c r="D45" s="213">
-        <v>1</v>
-      </c>
-      <c r="E45" s="213">
+      <c r="D45" s="33">
+        <v>1</v>
+      </c>
+      <c r="E45" s="33">
         <v>44</v>
       </c>
-      <c r="F45" s="213">
-        <v>0</v>
-      </c>
-      <c r="G45" s="213">
+      <c r="F45" s="33">
+        <v>0</v>
+      </c>
+      <c r="G45" s="33">
         <v>57</v>
       </c>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213">
+      <c r="H45" s="33"/>
+      <c r="I45" s="33">
         <v>25</v>
       </c>
-      <c r="J45" s="213"/>
-      <c r="K45" s="213">
-        <v>1</v>
-      </c>
-      <c r="L45" s="213"/>
-      <c r="M45" s="213">
+      <c r="J45" s="33"/>
+      <c r="K45" s="33">
+        <v>1</v>
+      </c>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33">
         <v>3</v>
       </c>
-      <c r="N45" s="213"/>
-      <c r="O45" s="213"/>
-      <c r="P45" s="213"/>
-      <c r="Q45" s="213"/>
-      <c r="R45" s="213"/>
-      <c r="S45" s="213"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
       <c r="T45" s="193"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" s="188" t="s">
         <v>470</v>
       </c>
-      <c r="C46" s="213">
+      <c r="C46" s="33">
         <v>33</v>
       </c>
-      <c r="D46" s="213">
+      <c r="D46" s="33">
         <v>13</v>
       </c>
-      <c r="E46" s="213">
-        <v>2</v>
-      </c>
-      <c r="F46" s="213">
+      <c r="E46" s="33">
+        <v>2</v>
+      </c>
+      <c r="F46" s="33">
         <v>40</v>
       </c>
-      <c r="G46" s="213">
+      <c r="G46" s="33">
         <v>23</v>
       </c>
-      <c r="H46" s="213"/>
-      <c r="I46" s="213">
-        <v>0</v>
-      </c>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
-      <c r="L46" s="213">
+      <c r="H46" s="33"/>
+      <c r="I46" s="33">
+        <v>0</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33">
         <v>18</v>
       </c>
-      <c r="M46" s="213">
-        <v>2</v>
-      </c>
-      <c r="N46" s="213"/>
-      <c r="O46" s="213">
+      <c r="M46" s="33">
+        <v>2</v>
+      </c>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33">
         <v>3</v>
       </c>
-      <c r="P46" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="213">
+      <c r="P46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="33">
         <v>13</v>
       </c>
-      <c r="R46" s="213"/>
-      <c r="S46" s="213"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
       <c r="T46" s="193"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="188" t="s">
         <v>379</v>
       </c>
-      <c r="C47" s="213">
+      <c r="C47" s="33">
         <v>44</v>
       </c>
-      <c r="D47" s="213">
+      <c r="D47" s="33">
         <v>28</v>
       </c>
-      <c r="E47" s="213">
+      <c r="E47" s="33">
         <v>3</v>
       </c>
-      <c r="F47" s="213"/>
-      <c r="G47" s="213">
+      <c r="F47" s="33"/>
+      <c r="G47" s="33">
         <v>55</v>
       </c>
-      <c r="H47" s="213"/>
-      <c r="I47" s="213">
+      <c r="H47" s="33"/>
+      <c r="I47" s="33">
         <v>45</v>
       </c>
-      <c r="J47" s="213"/>
-      <c r="K47" s="213"/>
-      <c r="L47" s="213"/>
-      <c r="M47" s="213">
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33">
         <v>29</v>
       </c>
-      <c r="N47" s="213"/>
-      <c r="O47" s="213"/>
-      <c r="P47" s="213"/>
-      <c r="Q47" s="213"/>
-      <c r="R47" s="213"/>
-      <c r="S47" s="213"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
       <c r="T47" s="193"/>
     </row>
     <row r="48" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -29548,43 +29865,43 @@
       <c r="B49" s="212" t="s">
         <v>566</v>
       </c>
-      <c r="C49" s="213" t="s">
+      <c r="C49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="D49" s="213"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="213"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
-      <c r="I49" s="213"/>
-      <c r="J49" s="213" t="s">
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="K49" s="213" t="s">
+      <c r="K49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="L49" s="213" t="s">
+      <c r="L49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="M49" s="213" t="s">
+      <c r="M49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="N49" s="213" t="s">
+      <c r="N49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="O49" s="213" t="s">
+      <c r="O49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="P49" s="213" t="s">
+      <c r="P49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="Q49" s="213" t="s">
+      <c r="Q49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="R49" s="213" t="s">
+      <c r="R49" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="S49" s="213" t="s">
+      <c r="S49" s="33" t="s">
         <v>337</v>
       </c>
       <c r="T49" s="193" t="s">
@@ -29595,43 +29912,43 @@
       <c r="B50" s="211" t="s">
         <v>567</v>
       </c>
-      <c r="C50" s="213" t="s">
+      <c r="C50" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="D50" s="213"/>
-      <c r="E50" s="213"/>
-      <c r="F50" s="213"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213"/>
-      <c r="I50" s="213"/>
-      <c r="J50" s="213" t="s">
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="K50" s="213" t="s">
+      <c r="K50" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="L50" s="213" t="s">
+      <c r="L50" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="M50" s="213" t="s">
+      <c r="M50" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="N50" s="213" t="s">
+      <c r="N50" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="O50" s="213" t="s">
+      <c r="O50" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="P50" s="213" t="s">
+      <c r="P50" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="Q50" s="213" t="s">
+      <c r="Q50" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="R50" s="213" t="s">
+      <c r="R50" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="S50" s="213" t="s">
+      <c r="S50" s="33" t="s">
         <v>503</v>
       </c>
       <c r="T50" s="193" t="s">
@@ -29677,105 +29994,105 @@
       <c r="B52" s="188" t="s">
         <v>472</v>
       </c>
-      <c r="C52" s="213">
-        <v>0</v>
-      </c>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="213"/>
-      <c r="H52" s="213"/>
-      <c r="I52" s="213"/>
-      <c r="J52" s="213">
-        <v>0</v>
-      </c>
-      <c r="K52" s="213"/>
-      <c r="L52" s="213">
-        <v>1</v>
-      </c>
-      <c r="M52" s="213"/>
-      <c r="N52" s="213">
-        <v>0</v>
-      </c>
-      <c r="O52" s="213">
-        <v>1</v>
-      </c>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="213"/>
-      <c r="R52" s="213">
-        <v>1</v>
-      </c>
-      <c r="S52" s="213"/>
+      <c r="C52" s="33">
+        <v>0</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33">
+        <v>0</v>
+      </c>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33">
+        <v>1</v>
+      </c>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33">
+        <v>0</v>
+      </c>
+      <c r="O52" s="33">
+        <v>1</v>
+      </c>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33">
+        <v>1</v>
+      </c>
+      <c r="S52" s="33"/>
       <c r="T52" s="193"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="C53" s="213">
-        <v>0</v>
-      </c>
-      <c r="D53" s="213"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="213">
-        <v>0</v>
-      </c>
-      <c r="K53" s="213"/>
-      <c r="L53" s="213">
+      <c r="C53" s="33">
+        <v>0</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33">
+        <v>0</v>
+      </c>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33">
         <v>3</v>
       </c>
-      <c r="M53" s="213">
-        <v>0</v>
-      </c>
-      <c r="N53" s="213">
-        <v>1</v>
-      </c>
-      <c r="O53" s="213">
+      <c r="M53" s="33">
+        <v>0</v>
+      </c>
+      <c r="N53" s="33">
+        <v>1</v>
+      </c>
+      <c r="O53" s="33">
         <v>4</v>
       </c>
-      <c r="P53" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="213"/>
-      <c r="R53" s="213"/>
-      <c r="S53" s="213"/>
+      <c r="P53" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
       <c r="T53" s="193"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="213">
-        <v>1</v>
-      </c>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="213"/>
-      <c r="H54" s="213"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="213"/>
-      <c r="L54" s="213">
-        <v>1</v>
-      </c>
-      <c r="M54" s="213"/>
-      <c r="N54" s="213">
-        <v>2</v>
-      </c>
-      <c r="O54" s="213"/>
-      <c r="P54" s="213">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="213">
-        <v>0</v>
-      </c>
-      <c r="R54" s="213"/>
-      <c r="S54" s="213"/>
+      <c r="C54" s="33">
+        <v>1</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33">
+        <v>1</v>
+      </c>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33">
+        <v>2</v>
+      </c>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="33">
+        <v>0</v>
+      </c>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
       <c r="T54" s="193">
         <v>1</v>
       </c>
@@ -29784,140 +30101,140 @@
       <c r="B55" s="188" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="213">
-        <v>1</v>
-      </c>
-      <c r="D55" s="213"/>
-      <c r="E55" s="213"/>
-      <c r="F55" s="213"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
-      <c r="I55" s="213"/>
-      <c r="J55" s="213"/>
-      <c r="K55" s="213"/>
-      <c r="L55" s="213">
-        <v>2</v>
-      </c>
-      <c r="M55" s="213"/>
-      <c r="N55" s="213">
-        <v>0</v>
-      </c>
-      <c r="O55" s="213">
+      <c r="C55" s="33">
+        <v>1</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33">
+        <v>2</v>
+      </c>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33">
+        <v>0</v>
+      </c>
+      <c r="O55" s="33">
         <v>3</v>
       </c>
-      <c r="P55" s="213">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="213">
-        <v>2</v>
-      </c>
-      <c r="R55" s="213"/>
-      <c r="S55" s="213"/>
+      <c r="P55" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>2</v>
+      </c>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
       <c r="T55" s="193"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="188" t="s">
         <v>442</v>
       </c>
-      <c r="C56" s="213">
-        <v>2</v>
-      </c>
-      <c r="D56" s="213"/>
-      <c r="E56" s="213"/>
-      <c r="F56" s="213"/>
-      <c r="G56" s="213"/>
-      <c r="H56" s="213"/>
-      <c r="I56" s="213"/>
-      <c r="J56" s="213"/>
-      <c r="K56" s="213">
-        <v>1</v>
-      </c>
-      <c r="L56" s="213">
-        <v>2</v>
-      </c>
-      <c r="M56" s="213"/>
-      <c r="N56" s="213">
-        <v>0</v>
-      </c>
-      <c r="O56" s="213">
-        <v>2</v>
-      </c>
-      <c r="P56" s="213"/>
-      <c r="Q56" s="213">
-        <v>1</v>
-      </c>
-      <c r="R56" s="213"/>
-      <c r="S56" s="213"/>
+      <c r="C56" s="33">
+        <v>2</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33">
+        <v>1</v>
+      </c>
+      <c r="L56" s="33">
+        <v>2</v>
+      </c>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33">
+        <v>0</v>
+      </c>
+      <c r="O56" s="33">
+        <v>2</v>
+      </c>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33">
+        <v>1</v>
+      </c>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
       <c r="T56" s="193"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" s="188" t="s">
         <v>473</v>
       </c>
-      <c r="C57" s="213">
-        <v>0</v>
-      </c>
-      <c r="D57" s="213"/>
-      <c r="E57" s="213"/>
-      <c r="F57" s="213"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="213"/>
-      <c r="L57" s="213">
-        <v>2</v>
-      </c>
-      <c r="M57" s="213"/>
-      <c r="N57" s="213"/>
-      <c r="O57" s="213">
-        <v>1</v>
-      </c>
-      <c r="P57" s="213">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="213">
-        <v>1</v>
-      </c>
-      <c r="R57" s="213">
-        <v>1</v>
-      </c>
-      <c r="S57" s="213"/>
+      <c r="C57" s="33">
+        <v>0</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33">
+        <v>2</v>
+      </c>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33">
+        <v>1</v>
+      </c>
+      <c r="P57" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>1</v>
+      </c>
+      <c r="R57" s="33">
+        <v>1</v>
+      </c>
+      <c r="S57" s="33"/>
       <c r="T57" s="193"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="188" t="s">
         <v>384</v>
       </c>
-      <c r="C58" s="213">
-        <v>0</v>
-      </c>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="213">
+      <c r="C58" s="33">
+        <v>0</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33">
         <v>3</v>
       </c>
-      <c r="K58" s="213">
-        <v>1</v>
-      </c>
-      <c r="L58" s="213">
-        <v>2</v>
-      </c>
-      <c r="M58" s="213"/>
-      <c r="N58" s="213"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="213"/>
-      <c r="R58" s="213">
-        <v>0</v>
-      </c>
-      <c r="S58" s="213"/>
+      <c r="K58" s="33">
+        <v>1</v>
+      </c>
+      <c r="L58" s="33">
+        <v>2</v>
+      </c>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33">
+        <v>0</v>
+      </c>
+      <c r="S58" s="33"/>
       <c r="T58" s="193"/>
     </row>
     <row r="59" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30010,51 +30327,51 @@
       <c r="B61" s="188" t="s">
         <v>631</v>
       </c>
-      <c r="C61" s="213">
+      <c r="C61" s="33">
         <v>44</v>
       </c>
-      <c r="D61" s="213">
+      <c r="D61" s="33">
         <v>32</v>
       </c>
-      <c r="E61" s="213">
+      <c r="E61" s="33">
         <v>23</v>
       </c>
-      <c r="F61" s="213">
+      <c r="F61" s="33">
         <v>82</v>
       </c>
-      <c r="G61" s="213">
+      <c r="G61" s="33">
         <v>92</v>
       </c>
-      <c r="H61" s="213">
+      <c r="H61" s="33">
         <v>100</v>
       </c>
-      <c r="I61" s="213">
+      <c r="I61" s="33">
         <v>27</v>
       </c>
-      <c r="J61" s="213">
+      <c r="J61" s="33">
         <v>12</v>
       </c>
-      <c r="K61" s="213">
-        <v>0</v>
-      </c>
-      <c r="L61" s="213">
+      <c r="K61" s="33">
+        <v>0</v>
+      </c>
+      <c r="L61" s="33">
         <v>74</v>
       </c>
-      <c r="M61" s="213">
+      <c r="M61" s="33">
         <v>66</v>
       </c>
-      <c r="N61" s="213">
+      <c r="N61" s="33">
         <v>22</v>
       </c>
-      <c r="O61" s="213">
-        <v>0</v>
-      </c>
-      <c r="P61" s="213"/>
-      <c r="Q61" s="213">
-        <v>0</v>
-      </c>
-      <c r="R61" s="213"/>
-      <c r="S61" s="213"/>
+      <c r="O61" s="33">
+        <v>0</v>
+      </c>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33">
+        <v>0</v>
+      </c>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
       <c r="T61" s="193"/>
     </row>
     <row r="62" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30112,55 +30429,55 @@
       <c r="B63" s="212" t="s">
         <v>568</v>
       </c>
-      <c r="C63" s="213">
+      <c r="C63" s="33">
         <v>266</v>
       </c>
-      <c r="D63" s="213">
+      <c r="D63" s="33">
         <v>286</v>
       </c>
-      <c r="E63" s="213">
+      <c r="E63" s="33">
         <v>184</v>
       </c>
-      <c r="F63" s="213">
+      <c r="F63" s="33">
         <v>67</v>
       </c>
-      <c r="G63" s="213">
+      <c r="G63" s="33">
         <v>267</v>
       </c>
-      <c r="H63" s="213">
+      <c r="H63" s="33">
         <v>5</v>
       </c>
-      <c r="I63" s="213">
+      <c r="I63" s="33">
         <v>177</v>
       </c>
-      <c r="J63" s="213">
+      <c r="J63" s="33">
         <v>17</v>
       </c>
-      <c r="K63" s="213">
-        <v>1</v>
-      </c>
-      <c r="L63" s="213">
+      <c r="K63" s="33">
+        <v>1</v>
+      </c>
+      <c r="L63" s="33">
         <v>23</v>
       </c>
-      <c r="M63" s="213">
+      <c r="M63" s="33">
         <v>274</v>
       </c>
-      <c r="N63" s="213">
+      <c r="N63" s="33">
         <v>23</v>
       </c>
-      <c r="O63" s="213">
+      <c r="O63" s="33">
         <v>3</v>
       </c>
-      <c r="P63" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="213">
+      <c r="P63" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="33">
         <v>13</v>
       </c>
-      <c r="R63" s="213">
-        <v>0</v>
-      </c>
-      <c r="S63" s="213">
+      <c r="R63" s="33">
+        <v>0</v>
+      </c>
+      <c r="S63" s="33">
         <v>0</v>
       </c>
       <c r="T63" s="193">
@@ -30171,55 +30488,55 @@
       <c r="B64" s="188" t="s">
         <v>569</v>
       </c>
-      <c r="C64" s="213">
+      <c r="C64" s="33">
         <v>9</v>
       </c>
-      <c r="D64" s="213">
+      <c r="D64" s="33">
         <v>9</v>
       </c>
-      <c r="E64" s="213">
+      <c r="E64" s="33">
         <v>9</v>
       </c>
-      <c r="F64" s="213">
+      <c r="F64" s="33">
         <v>4</v>
       </c>
-      <c r="G64" s="213">
+      <c r="G64" s="33">
         <v>9</v>
       </c>
-      <c r="H64" s="213">
-        <v>1</v>
-      </c>
-      <c r="I64" s="213">
+      <c r="H64" s="33">
+        <v>1</v>
+      </c>
+      <c r="I64" s="33">
         <v>9</v>
       </c>
-      <c r="J64" s="213">
+      <c r="J64" s="33">
         <v>5</v>
       </c>
-      <c r="K64" s="213">
+      <c r="K64" s="33">
         <v>4</v>
       </c>
-      <c r="L64" s="213">
+      <c r="L64" s="33">
         <v>9</v>
       </c>
-      <c r="M64" s="213">
+      <c r="M64" s="33">
         <v>9</v>
       </c>
-      <c r="N64" s="213">
+      <c r="N64" s="33">
         <v>6</v>
       </c>
-      <c r="O64" s="213">
+      <c r="O64" s="33">
         <v>6</v>
       </c>
-      <c r="P64" s="213">
+      <c r="P64" s="33">
         <v>5</v>
       </c>
-      <c r="Q64" s="213">
+      <c r="Q64" s="33">
         <v>4</v>
       </c>
-      <c r="R64" s="213">
+      <c r="R64" s="33">
         <v>4</v>
       </c>
-      <c r="S64" s="213">
+      <c r="S64" s="33">
         <v>1</v>
       </c>
       <c r="T64" s="193">
@@ -30230,43 +30547,43 @@
       <c r="B65" s="188" t="s">
         <v>570</v>
       </c>
-      <c r="C65" s="213">
+      <c r="C65" s="33">
         <v>40</v>
       </c>
-      <c r="D65" s="213"/>
-      <c r="E65" s="213"/>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="213"/>
-      <c r="I65" s="213"/>
-      <c r="J65" s="213">
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33">
         <v>43</v>
       </c>
-      <c r="K65" s="213">
+      <c r="K65" s="33">
         <v>38</v>
       </c>
-      <c r="L65" s="213">
+      <c r="L65" s="33">
         <v>17</v>
       </c>
-      <c r="M65" s="213">
-        <v>0</v>
-      </c>
-      <c r="N65" s="213">
+      <c r="M65" s="33">
+        <v>0</v>
+      </c>
+      <c r="N65" s="33">
         <v>13</v>
       </c>
-      <c r="O65" s="213">
+      <c r="O65" s="33">
         <v>60</v>
       </c>
-      <c r="P65" s="213">
+      <c r="P65" s="33">
         <v>20</v>
       </c>
-      <c r="Q65" s="213">
+      <c r="Q65" s="33">
         <v>70</v>
       </c>
-      <c r="R65" s="213">
-        <v>0</v>
-      </c>
-      <c r="S65" s="213">
+      <c r="R65" s="33">
+        <v>0</v>
+      </c>
+      <c r="S65" s="33">
         <v>0</v>
       </c>
       <c r="T65" s="193">
@@ -30277,43 +30594,43 @@
       <c r="B66" s="188" t="s">
         <v>571</v>
       </c>
-      <c r="C66" s="213">
+      <c r="C66" s="33">
         <v>48</v>
       </c>
-      <c r="D66" s="213"/>
-      <c r="E66" s="213"/>
-      <c r="F66" s="213"/>
-      <c r="G66" s="213"/>
-      <c r="H66" s="213"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="213">
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33">
         <v>21</v>
       </c>
-      <c r="K66" s="213">
+      <c r="K66" s="33">
         <v>38</v>
       </c>
-      <c r="L66" s="213">
+      <c r="L66" s="33">
         <v>83</v>
       </c>
-      <c r="M66" s="213">
+      <c r="M66" s="33">
         <v>100</v>
       </c>
-      <c r="N66" s="213">
+      <c r="N66" s="33">
         <v>87</v>
       </c>
-      <c r="O66" s="213">
+      <c r="O66" s="33">
         <v>10</v>
       </c>
-      <c r="P66" s="213">
+      <c r="P66" s="33">
         <v>40</v>
       </c>
-      <c r="Q66" s="213">
+      <c r="Q66" s="33">
         <v>20</v>
       </c>
-      <c r="R66" s="213">
+      <c r="R66" s="33">
         <v>92</v>
       </c>
-      <c r="S66" s="213">
+      <c r="S66" s="33">
         <v>33</v>
       </c>
       <c r="T66" s="193">
@@ -30324,43 +30641,43 @@
       <c r="B67" s="211" t="s">
         <v>572</v>
       </c>
-      <c r="C67" s="213">
+      <c r="C67" s="33">
         <v>12</v>
       </c>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="213"/>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="213">
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33">
         <v>36</v>
       </c>
-      <c r="K67" s="213">
+      <c r="K67" s="33">
         <v>25</v>
       </c>
-      <c r="L67" s="213">
-        <v>0</v>
-      </c>
-      <c r="M67" s="213">
-        <v>0</v>
-      </c>
-      <c r="N67" s="213">
-        <v>0</v>
-      </c>
-      <c r="O67" s="213">
+      <c r="L67" s="33">
+        <v>0</v>
+      </c>
+      <c r="M67" s="33">
+        <v>0</v>
+      </c>
+      <c r="N67" s="33">
+        <v>0</v>
+      </c>
+      <c r="O67" s="33">
         <v>30</v>
       </c>
-      <c r="P67" s="213">
+      <c r="P67" s="33">
         <v>40</v>
       </c>
-      <c r="Q67" s="213">
+      <c r="Q67" s="33">
         <v>10</v>
       </c>
-      <c r="R67" s="213">
+      <c r="R67" s="33">
         <v>8</v>
       </c>
-      <c r="S67" s="213">
+      <c r="S67" s="33">
         <v>67</v>
       </c>
       <c r="T67" s="193">
@@ -30414,41 +30731,41 @@
       <c r="B69" s="188" t="s">
         <v>574</v>
       </c>
-      <c r="C69" s="213">
+      <c r="C69" s="33">
         <v>40</v>
       </c>
-      <c r="D69" s="213"/>
-      <c r="E69" s="213"/>
-      <c r="F69" s="213"/>
-      <c r="G69" s="213"/>
-      <c r="H69" s="213"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="213">
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33">
         <v>40</v>
       </c>
-      <c r="K69" s="213">
+      <c r="K69" s="33">
         <v>50</v>
       </c>
-      <c r="L69" s="213">
+      <c r="L69" s="33">
         <v>93</v>
       </c>
-      <c r="M69" s="213"/>
-      <c r="N69" s="213">
+      <c r="M69" s="33"/>
+      <c r="N69" s="33">
         <v>67</v>
       </c>
-      <c r="O69" s="213">
-        <v>0</v>
-      </c>
-      <c r="P69" s="213">
+      <c r="O69" s="33">
+        <v>0</v>
+      </c>
+      <c r="P69" s="33">
         <v>29</v>
       </c>
-      <c r="Q69" s="213">
+      <c r="Q69" s="33">
         <v>25</v>
       </c>
-      <c r="R69" s="213">
+      <c r="R69" s="33">
         <v>100</v>
       </c>
-      <c r="S69" s="213"/>
+      <c r="S69" s="33"/>
       <c r="T69" s="193">
         <v>0</v>
       </c>
@@ -30500,55 +30817,55 @@
       <c r="B71" s="212" t="s">
         <v>576</v>
       </c>
-      <c r="C71" s="213">
+      <c r="C71" s="33">
         <v>5</v>
       </c>
-      <c r="D71" s="213">
-        <v>0</v>
-      </c>
-      <c r="E71" s="213">
-        <v>0</v>
-      </c>
-      <c r="F71" s="213">
-        <v>0</v>
-      </c>
-      <c r="G71" s="213">
-        <v>0</v>
-      </c>
-      <c r="H71" s="213">
-        <v>0</v>
-      </c>
-      <c r="I71" s="213">
-        <v>0</v>
-      </c>
-      <c r="J71" s="213">
+      <c r="D71" s="33">
+        <v>0</v>
+      </c>
+      <c r="E71" s="33">
+        <v>0</v>
+      </c>
+      <c r="F71" s="33">
+        <v>0</v>
+      </c>
+      <c r="G71" s="33">
+        <v>0</v>
+      </c>
+      <c r="H71" s="33">
+        <v>0</v>
+      </c>
+      <c r="I71" s="33">
+        <v>0</v>
+      </c>
+      <c r="J71" s="33">
         <v>5</v>
       </c>
-      <c r="K71" s="213">
-        <v>2</v>
-      </c>
-      <c r="L71" s="213">
+      <c r="K71" s="33">
+        <v>2</v>
+      </c>
+      <c r="L71" s="33">
         <v>15</v>
       </c>
-      <c r="M71" s="213">
-        <v>0</v>
-      </c>
-      <c r="N71" s="213">
+      <c r="M71" s="33">
+        <v>0</v>
+      </c>
+      <c r="N71" s="33">
         <v>3</v>
       </c>
-      <c r="O71" s="213">
+      <c r="O71" s="33">
         <v>11</v>
       </c>
-      <c r="P71" s="213">
+      <c r="P71" s="33">
         <v>7</v>
       </c>
-      <c r="Q71" s="213">
+      <c r="Q71" s="33">
         <v>4</v>
       </c>
-      <c r="R71" s="213">
-        <v>2</v>
-      </c>
-      <c r="S71" s="213">
+      <c r="R71" s="33">
+        <v>2</v>
+      </c>
+      <c r="S71" s="33">
         <v>0</v>
       </c>
       <c r="T71" s="193">
@@ -30559,55 +30876,55 @@
       <c r="B72" s="188" t="s">
         <v>577</v>
       </c>
-      <c r="C72" s="213">
+      <c r="C72" s="33">
         <v>25</v>
       </c>
-      <c r="D72" s="213">
-        <v>0</v>
-      </c>
-      <c r="E72" s="213">
-        <v>0</v>
-      </c>
-      <c r="F72" s="213">
-        <v>0</v>
-      </c>
-      <c r="G72" s="213">
-        <v>0</v>
-      </c>
-      <c r="H72" s="213">
-        <v>0</v>
-      </c>
-      <c r="I72" s="213">
-        <v>0</v>
-      </c>
-      <c r="J72" s="213">
+      <c r="D72" s="33">
+        <v>0</v>
+      </c>
+      <c r="E72" s="33">
+        <v>0</v>
+      </c>
+      <c r="F72" s="33">
+        <v>0</v>
+      </c>
+      <c r="G72" s="33">
+        <v>0</v>
+      </c>
+      <c r="H72" s="33">
+        <v>0</v>
+      </c>
+      <c r="I72" s="33">
+        <v>0</v>
+      </c>
+      <c r="J72" s="33">
         <v>14</v>
       </c>
-      <c r="K72" s="213">
+      <c r="K72" s="33">
         <v>16</v>
       </c>
-      <c r="L72" s="213">
+      <c r="L72" s="33">
         <v>35</v>
       </c>
-      <c r="M72" s="213">
-        <v>1</v>
-      </c>
-      <c r="N72" s="213">
+      <c r="M72" s="33">
+        <v>1</v>
+      </c>
+      <c r="N72" s="33">
         <v>15</v>
       </c>
-      <c r="O72" s="213">
+      <c r="O72" s="33">
         <v>20</v>
       </c>
-      <c r="P72" s="213">
+      <c r="P72" s="33">
         <v>20</v>
       </c>
-      <c r="Q72" s="213">
+      <c r="Q72" s="33">
         <v>10</v>
       </c>
-      <c r="R72" s="213">
+      <c r="R72" s="33">
         <v>13</v>
       </c>
-      <c r="S72" s="213">
+      <c r="S72" s="33">
         <v>3</v>
       </c>
       <c r="T72" s="193">
@@ -30618,55 +30935,55 @@
       <c r="B73" s="188" t="s">
         <v>578</v>
       </c>
-      <c r="C73" s="213">
+      <c r="C73" s="33">
         <v>30</v>
       </c>
-      <c r="D73" s="213">
+      <c r="D73" s="33">
         <v>32</v>
       </c>
-      <c r="E73" s="213">
+      <c r="E73" s="33">
         <v>20</v>
       </c>
-      <c r="F73" s="213">
+      <c r="F73" s="33">
         <v>17</v>
       </c>
-      <c r="G73" s="213">
+      <c r="G73" s="33">
         <v>30</v>
       </c>
-      <c r="H73" s="213">
+      <c r="H73" s="33">
         <v>5</v>
       </c>
-      <c r="I73" s="213">
+      <c r="I73" s="33">
         <v>20</v>
       </c>
-      <c r="J73" s="213">
+      <c r="J73" s="33">
         <v>3</v>
       </c>
-      <c r="K73" s="213">
-        <v>0</v>
-      </c>
-      <c r="L73" s="213">
+      <c r="K73" s="33">
+        <v>0</v>
+      </c>
+      <c r="L73" s="33">
         <v>3</v>
       </c>
-      <c r="M73" s="213">
+      <c r="M73" s="33">
         <v>30</v>
       </c>
-      <c r="N73" s="213">
+      <c r="N73" s="33">
         <v>4</v>
       </c>
-      <c r="O73" s="213">
-        <v>0</v>
-      </c>
-      <c r="P73" s="213">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="213">
+      <c r="O73" s="33">
+        <v>0</v>
+      </c>
+      <c r="P73" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="33">
         <v>3</v>
       </c>
-      <c r="R73" s="213">
-        <v>0</v>
-      </c>
-      <c r="S73" s="213">
+      <c r="R73" s="33">
+        <v>0</v>
+      </c>
+      <c r="S73" s="33">
         <v>0</v>
       </c>
       <c r="T73" s="193">
@@ -30722,7 +31039,7 @@
     </row>
     <row r="75" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="218" t="s">
+      <c r="B76" s="217" t="s">
         <v>636</v>
       </c>
       <c r="C76" s="85" t="s">
